--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangjia\Desktop\产品\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\LG\trunk\Longgan\Longgan.Web\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +336,27 @@
   <si>
     <t>DQ8.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PicName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别墅地源热泵</t>
+  </si>
+  <si>
+    <t>别墅地暖</t>
+  </si>
+  <si>
+    <t>AZ42.jpg</t>
   </si>
 </sst>
 </file>
@@ -392,7 +414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +422,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1571,4 +1596,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId14"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',GETDATE()');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ42.jpg',GETDATE()');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',GETDATE()');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地暖','','',GETDATE()');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="别墅地源热泵" display="http://szlonggan.com/caseshow_1_47.html"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="别墅地暖" display="http://szlonggan.com/caseshow_1_46.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="139">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,13 +350,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AZ42.jpg</t>
+  </si>
+  <si>
+    <t>AZ01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ02.jpg</t>
+  </si>
+  <si>
+    <t>AZ03.jpg</t>
+  </si>
+  <si>
+    <t>AZ04.jpg</t>
+  </si>
+  <si>
+    <t>AZ05.jpg</t>
+  </si>
+  <si>
+    <t>AZ06.jpg</t>
+  </si>
+  <si>
+    <t>AZ07.jpg</t>
+  </si>
+  <si>
+    <t>AZ08.jpg</t>
+  </si>
+  <si>
+    <t>AZ09.jpg</t>
+  </si>
+  <si>
+    <t>AZ10.jpg</t>
+  </si>
+  <si>
+    <t>AZ11.jpg</t>
+  </si>
+  <si>
+    <t>AZ12.jpg</t>
+  </si>
+  <si>
+    <t>AZ13.jpg</t>
+  </si>
+  <si>
+    <t>AZ14.jpg</t>
+  </si>
+  <si>
+    <t>AZ15.jpg</t>
+  </si>
+  <si>
+    <t>AZ16.jpg</t>
+  </si>
+  <si>
+    <t>AZ17.jpg</t>
+  </si>
+  <si>
+    <t>AZ18.jpg</t>
+  </si>
+  <si>
+    <t>AZ19.jpg</t>
+  </si>
+  <si>
+    <t>AZ20.jpg</t>
+  </si>
+  <si>
+    <t>AZ21.jpg</t>
+  </si>
+  <si>
+    <t>AZ22.jpg</t>
+  </si>
+  <si>
+    <t>AZ23.jpg</t>
+  </si>
+  <si>
+    <t>AZ24.jpg</t>
+  </si>
+  <si>
+    <t>AZ25.jpg</t>
+  </si>
+  <si>
+    <t>AZ26.jpg</t>
+  </si>
+  <si>
+    <t>AZ27.jpg</t>
+  </si>
+  <si>
+    <t>AZ28.jpg</t>
+  </si>
+  <si>
+    <t>AZ29.jpg</t>
+  </si>
+  <si>
+    <t>AZ30.jpg</t>
+  </si>
+  <si>
+    <t>AZ31.jpg</t>
+  </si>
+  <si>
+    <t>AZ32.jpg</t>
+  </si>
+  <si>
+    <t>AZ33.jpg</t>
+  </si>
+  <si>
+    <t>AZ34.jpg</t>
+  </si>
+  <si>
+    <t>AZ35.jpg</t>
+  </si>
+  <si>
+    <t>AZ36.jpg</t>
+  </si>
+  <si>
+    <t>AZ37.jpg</t>
+  </si>
+  <si>
+    <t>AZ38.jpg</t>
+  </si>
+  <si>
+    <t>AZ39.jpg</t>
+  </si>
+  <si>
+    <t>AZ40.jpg</t>
+  </si>
+  <si>
+    <t>AZ41.jpg</t>
+  </si>
+  <si>
     <t>别墅地源热泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>别墅地暖</t>
-  </si>
-  <si>
-    <t>AZ42.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州陆慕中心幼儿园热水工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星级酒店吴江海悦维保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州农业大学热水工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京四五四解放军医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚客优20吨热水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -414,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,9 +572,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1600,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,33 +1767,512 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',GETDATE());"</f>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ01.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G43" si="0">"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',GETDATE());"</f>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ02.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ03.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ04.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ05.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ06.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ07.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ08.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ09.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ10.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ11.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ12.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ13.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ14.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ15.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ16.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ17.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ18.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ19.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'尚客优20吨热水','','AZ20.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ21.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ22.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ23.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ24.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ25.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ26.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ27.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ28.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ29.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ30.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ31.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ32.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ33.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ34.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ35.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ36.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ37.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ38.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ39.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ40.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地暖','','AZ41.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',GETDATE()');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ42.jpg',GETDATE()');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',GETDATE()');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地暖','','',GETDATE()');</v>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ42.jpg',GETDATE());</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="别墅地源热泵" display="http://szlonggan.com/caseshow_1_47.html"/>
-    <hyperlink ref="A3" r:id="rId2" tooltip="别墅地暖" display="http://szlonggan.com/caseshow_1_46.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="News" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="169">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +507,149 @@
   </si>
   <si>
     <t>尚客优20吨热水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方天气转暖 如何避过用电高峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方仍处三月雪，南方桃花已盛开。东北三省依然是一片冰寒，部分南方沿海城市却已迎来早春，闽南漳、厦一带甚至一度回暖至20摄氏度。据预测，福建、海南等南方省市在接下来的四月份，气温将达到25摄氏度左右。一旦温度上升，用电高峰便难避免，那么如何应对用电高峰，保证洗浴舒适度与节约性呢？空气能热水器为此提供了良好的解决方式。
+    一、恒温设置益于身
+    尽管南方眼下已经突破20摄氏度大关，然而事实上气温仍然处于不稳定状态，昼夜温差明显。此时不注意洗浴环境，忽略热水器控温，乃至为了满足一时舒适，使用冷水进行淋浴，都大有可能使身体抵抗力下降，引起感冒、发烧等症状。专家建议，在气温不稳定时期，淋浴应当保持40摄氏度左右，使身体得以适当放松而不至于着凉感冒。普通热水器最大的缺陷，便是难以控制水温，水温需要在开启开关一分钟内由冷水渐渐加温至合适温度，放之不用则造成水资源浪费，用于洗浴则容易引起身体不适。相比之下，空气能热水器利用空气能进行内部压缩处理，加热水温，使热水器能够即开即热，保持在合理温度范围内，以此更好地迎合人们的需求。
+    二、节约用电利于财
+    对于大部分人而言，气温升高，则空调、电风扇等大功率电器将频繁使用，用电量将大幅度升高。另外，由于洗浴次数增加，热水器使用率也有所增加。如今水电费一路上涨，节约用电，便成为人们的共识。空气能热水器主要依靠空气能运行工作，只需要少量的电能，安全环保的同时，工作效率为电热水器的2-3倍，为人们日常生活带来了福音。使用空气能热水器大大减少了生活开支，而不影响生活品质。
+    天气转暖，用电高峰，较之使用传统热水器耗费电量，空气能热水器的优势已然相当明显。在即将到来的高温潮中，又是新的销售高峰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场优势凸显 空气能热水器将破百亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个新兴产业，空气能热水器在国内的兴起仅仅十年有余，与传统热水器几百亿的市场体量相比，空气能产业规模显得市场份额较小。空气能热水器行业是否就此停止不前了么?事实并非如此。
+    节能环保安装方便是优势
+    随着消费者对节能环保意识的不断提升，有着与生俱来高效节能、绿色环保标签的空气能热水器越来越受到市场的热捧。此外，空气能热水器相比传统热水器还拥有安装方便，不受阴雨天气、高楼大厦、或者农村等环境限制，使用范围更广，全天候实用，市场前景相当客观。
+    国家政策支持加速发展
+    空气热能作为一种新能源产品，得到了世界各国政府支持和认可。包括中国在内的大部分国家为了促进空气能产品的发展，都对其制定了许多的优惠政策。在我国“十二五”期间，也相继出台了“节能产品惠民工程”等政策扶持空气能发展。未来十年将是空气能行业发展的“黄金时期”。为此，空气能企业纷纷加快技术革新，品牌树立，扩大宣传的步伐，行业竞争将会更加激烈。同时，行业规范标准的陆续出台，将对空气能的发展起到引导、规范和推动作用。我们完全可以相信，空气能行业将在2014年进入发展的快车道。
+    市场优势凸显 2014有望破百亿
+    空气能热水器于2002年进入国内市场开始参与到热水器行业的市场竞争当中，经过十余年的发展，不管是产品质量的稳定性、产品性能的可靠性、技术的创新性，还是其市场认知度，空气能热水器都有了很大的提升。据相关部门统计，2013年，我国空气能热水器市场规模达到95亿元，同比2012年增长41.83%。其中工程机市场为50亿元，占53%，家用机市场为45亿元，占47%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年空气能热水器迎来发展政策机遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩机是空气能热水器的最核心的部件，空气能热水器能将空气中免费的能量“泵”到水中，进行制热，产生热水，全赖压缩机的作用。因此，压缩机相当于空气能热水器的“心脏”，压缩机性能的好坏，直接影响到热泵产品的整机性能。
+    以前由于压缩机技术的制约，使得部分实力较弱的热泵企业在开拓北方市场时显得力不从心，空气能热水器因此不能在北方普及，使得北方热泵经销商也丧失创富的平台。
+    如今，热泵技术的大升级，让热泵采暖在北方普及成为现实，给北方热泵经销商赢来广阔的创富平台与空间。目前国家特别重视节能减排事业的发展，鼓励热泵采暖能得到广泛使用。如在今年1月，北京政府发布政策明确提出深层地热和燃煤燃油锅炉改用热泵给予50%的资金支持，力争到2017年全市热泵系统供暖面积达7000万平方米。又如今年两会，李克强总理提出淘汰5万台烧煤小锅炉，减轻北方雾霾等等。这些政策下，让热泵采暖赢得发展契机，也为北方热泵经销商带来无限商机。
+    媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节能热水器：空气能和太阳能相互竞争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同为节能产品，本该共谋发展，但如今，空气能热水器与太阳能热水器的生产厂商却似乎已经兵戎相见。其背后，国家相关扶持政策对热泵产业的有意倾斜也越来越明显。如2013年惠民工程，空气能热水器被纳入节能补贴范围，而且是单品补贴最高的产品。总体来说，国家对空气能产业的扶持政策相对客观许多。
+    相比传统热水器，空气能热水器最大的优势在节能和环保，2008年出台的《欧洲气候变化协定》就将空气源热泵技术认定为可再生能源，而不是像某太阳能龙头企业所说的，空气能热水器使用的是电力转化后的二次能源。目前，空气能热水器在发达国家的市场已经相当成熟，使用比例高达70%，在消费者当中也有较高的认知度。由于节能效果显着，在欧美国家，空气能热水器有着优厚的政策性补贴，并大力扶持空气能产业。
+    太阳能和空气能热水器都是节能产品，本应共同营造一个良好的市场环境，携手发展。而且在很长一段时间内，各种节能技术与产品不是取代和被取代的关系，而是互相补充的关系。这种补充不仅表现为不同应用领域的相互补充，还将是产品技术运用层面上的共融。太空能系列，将太阳能节能技术与空气能节能技术相融合，既突出了太阳能日常供热的节能性，又表现出了空气能高端技术产品的舒适安全、高效节能、绿色环保的特点。
+    从近几年来的形势来看，我国空气能产业迎来了绝佳的发展契机。在政策上，有国家先后出台多项扶助政策，频频“落实”。在行业上，又相继实施热泵热水器能效等级标准等多项行业标准，规范空气能市场秩序。在热泵企业中，也涌现出一大批有国家使命感和社会责任心的热泵企业全面推动空气能行业快速发展，为国家节能环保事业奉献。
+    热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，同时，多种节能技术广泛深入的整合运用必将使我国空气能行业稳步走向繁荣，引领发展新风向。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气能成为主流热水器产品是必然趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近年来，随着空气能产业的快速崛起，产业迅猛发展对推动国家节能减排事业发展的发挥的作用也越来越突出，国家相关扶持政策对产业的有意倾斜也越来越明显。例如2013年惠民工程，空气能热水器被纳入节能补贴范围，而且是单品补贴最高的产品。总体上来，相比以前，现在国家对空气能产业的扶助政策相对可观许多。但相比发达国家的扶助政策，我国的扶助政策又显得小巫见大巫。
+   相比传统热水器，空气能热水器最大的优势在于节能和环保，2008年出台的《欧洲气候变化协定》就将空气源热泵技术认定为可再生能源。目前，空气能热水器在发达国家的市场已经相当成熟，使用比例高达70%，在消费者当中也有较高的认知度。由于节能效果显著，日本和欧美国家都有优厚的政策性补贴，大力扶持空气能产业。
+    在美国，从2001年开始美国每年安装空气能热水机40万台，并保持每年以10%的速度递增。美国节能法规定，购置空气能热水器等节能环保设备，居民该项支出额的30%可以抵所得税。
+    在法国，2006年规定，利用可再生能源和特定型号热泵设备的系统，则可以享受高达50%的税额减免(包括个人税、餐饮购物等消费税)。
+    在瑞典，2011年宣布，如果用热泵系统替换燃油和电热系统，将能获得政府每台1.2万到2万瑞典克郞(合约1800美元到3000美元)的奖励。
+    在日本，政府规定，向购买空气能热水器的消费者提供财政补贴，购买一台最高补贴可相当于人民币3000元左右。
+    ……
+    显然，发达国家出台政策对新兴空气能产业的扶持的力度要比我国大得多。严格意义上说，我国空气能热水器产业属于舶来品，是进入新世纪以来才从国外引进，发展历史和认知度都没发达国家的高，更需要国家政府的大力支持。不过，空气能热水器属于高端技术产品，舒适安全、高效节能、绿色环保，代表高品质的生活，随着国民生活水平的提高，空气能成为主流热水器产品也是必然趋势。
+    从近几年来的形势来看，我国空气能产业迎来了最绝佳的发展契机。在政策上，有国家先后出台多项扶助政策，频频“落实”。在行业上，又相继实施热泵热水器能效等级标准等多项行业标准，规范空气能市场秩序。在热泵企业中，也涌现出一大批有国家使命感和社会责任心的热泵企业全面推动空气能行业快速发展，为国家节能环保事业奉献。
+    热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，必将使我国空气能行业稳步走向繁荣，引领发展新风向。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温空气能热水器技术助力燃煤锅炉被替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩机是空气能热水器的最核心的部件，空气能热水器能将空气中免费的能量“泵”到水中，进行制热，产生热水，全赖压缩机的作用。因此，压缩机相当于空气能热水器的“心脏”，压缩机性能的好坏，直接影响到热泵产品的整机性能。
+    由于压缩机技术的制约，使得部分实力较弱的热泵企业在开拓北方市场时显得力不从心，空气能热水器因此不能在北方普及，使得北方热泵经销商也丧失创富的平台。不过目前研制推出的，代表我国热泵地暖最高技术水平的“智享全能·超低温地暖热泵”，在零下25℃也能稳定运行，能在我国大部分北方地区使用，是北方热泵经销商掘金创富的好法器。
+    热泵技术的大升级，让热泵采暖在北方普及成为现实，给北方热泵经销商赢来广阔的创富平台与空间。目前国家特别重视节能减排事业的发展，鼓励热泵采暖能得到广泛使用。如在今年1月，北京政府发布政策明确提出深层地热和燃煤燃油锅炉改用热泵给予50%的资金支持，力争到2017年全市热泵系统供暖面积达7000万平方米。又如今年两会，李克强总理提出淘汰5万台烧煤小锅炉，减轻北方雾霾等等。这些政策下，让热泵采暖赢得发展契机，也为北方热泵经销商带来无限商机。
+    媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-05-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-04-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-03-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-02-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-01-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DY5.jpg</t>
+  </si>
+  <si>
+    <t>DY6.jpg</t>
+  </si>
+  <si>
+    <t>DY7.jpg</t>
+  </si>
+  <si>
+    <t>DY8.jpg</t>
+  </si>
+  <si>
+    <t>DY9.jpg</t>
+  </si>
+  <si>
+    <t>DY10.jpg</t>
+  </si>
+  <si>
+    <t>地源热泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申银集团</t>
+  </si>
+  <si>
+    <t>申银集团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +716,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -909,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G57" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',GETDATE(),'"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="G3:G63" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',GETDATE(),'"&amp;E3&amp;"');"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
@@ -1275,7 +1425,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
@@ -1305,92 +1455,92 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY5.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY6.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY7.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY8.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY9.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY10.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1398,14 +1548,14 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
         <v>27</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1413,14 +1563,14 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
         <v>27</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1428,14 +1578,14 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
         <v>27</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1443,104 +1593,104 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
         <v>27</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -1548,134 +1698,134 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -1683,14 +1833,14 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -1698,14 +1848,14 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -1713,12 +1863,102 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
       </c>
       <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT9.jpg','',GETDATE(),'KT');</v>
       </c>
@@ -1749,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2275,4 +2515,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;B2&amp;"',0,'"&amp;C2&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'南方天气转暖 如何避过用电高峰','北方仍处三月雪，南方桃花已盛开。东北三省依然是一片冰寒，部分南方沿海城市却已迎来早春，闽南漳、厦一带甚至一度回暖至20摄氏度。据预测，福建、海南等南方省市在接下来的四月份，气温将达到25摄氏度左右。一旦温度上升，用电高峰便难避免，那么如何应对用电高峰，保证洗浴舒适度与节约性呢？空气能热水器为此提供了良好的解决方式。
+    一、恒温设置益于身
+    尽管南方眼下已经突破20摄氏度大关，然而事实上气温仍然处于不稳定状态，昼夜温差明显。此时不注意洗浴环境，忽略热水器控温，乃至为了满足一时舒适，使用冷水进行淋浴，都大有可能使身体抵抗力下降，引起感冒、发烧等症状。专家建议，在气温不稳定时期，淋浴应当保持40摄氏度左右，使身体得以适当放松而不至于着凉感冒。普通热水器最大的缺陷，便是难以控制水温，水温需要在开启开关一分钟内由冷水渐渐加温至合适温度，放之不用则造成水资源浪费，用于洗浴则容易引起身体不适。相比之下，空气能热水器利用空气能进行内部压缩处理，加热水温，使热水器能够即开即热，保持在合理温度范围内，以此更好地迎合人们的需求。
+    二、节约用电利于财
+    对于大部分人而言，气温升高，则空调、电风扇等大功率电器将频繁使用，用电量将大幅度升高。另外，由于洗浴次数增加，热水器使用率也有所增加。如今水电费一路上涨，节约用电，便成为人们的共识。空气能热水器主要依靠空气能运行工作，只需要少量的电能，安全环保的同时，工作效率为电热水器的2-3倍，为人们日常生活带来了福音。使用空气能热水器大大减少了生活开支，而不影响生活品质。
+    天气转暖，用电高峰，较之使用传统热水器耗费电量，空气能热水器的优势已然相当明显。在即将到来的高温潮中，又是新的销售高峰。',0,'2015-06-01');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="0">"INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"',0,'"&amp;C3&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'市场优势凸显 空气能热水器将破百亿','作为一个新兴产业，空气能热水器在国内的兴起仅仅十年有余，与传统热水器几百亿的市场体量相比，空气能产业规模显得市场份额较小。空气能热水器行业是否就此停止不前了么?事实并非如此。
+    节能环保安装方便是优势
+    随着消费者对节能环保意识的不断提升，有着与生俱来高效节能、绿色环保标签的空气能热水器越来越受到市场的热捧。此外，空气能热水器相比传统热水器还拥有安装方便，不受阴雨天气、高楼大厦、或者农村等环境限制，使用范围更广，全天候实用，市场前景相当客观。
+    国家政策支持加速发展
+    空气热能作为一种新能源产品，得到了世界各国政府支持和认可。包括中国在内的大部分国家为了促进空气能产品的发展，都对其制定了许多的优惠政策。在我国“十二五”期间，也相继出台了“节能产品惠民工程”等政策扶持空气能发展。未来十年将是空气能行业发展的“黄金时期”。为此，空气能企业纷纷加快技术革新，品牌树立，扩大宣传的步伐，行业竞争将会更加激烈。同时，行业规范标准的陆续出台，将对空气能的发展起到引导、规范和推动作用。我们完全可以相信，空气能行业将在2014年进入发展的快车道。
+    市场优势凸显 2014有望破百亿
+    空气能热水器于2002年进入国内市场开始参与到热水器行业的市场竞争当中，经过十余年的发展，不管是产品质量的稳定性、产品性能的可靠性、技术的创新性，还是其市场认知度，空气能热水器都有了很大的提升。据相关部门统计，2013年，我国空气能热水器市场规模达到95亿元，同比2012年增长41.83%。其中工程机市场为50亿元，占53%，家用机市场为45亿元，占47%。',0,'2015-05-02');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="405" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'今年空气能热水器迎来发展政策机遇','压缩机是空气能热水器的最核心的部件，空气能热水器能将空气中免费的能量“泵”到水中，进行制热，产生热水，全赖压缩机的作用。因此，压缩机相当于空气能热水器的“心脏”，压缩机性能的好坏，直接影响到热泵产品的整机性能。
+    以前由于压缩机技术的制约，使得部分实力较弱的热泵企业在开拓北方市场时显得力不从心，空气能热水器因此不能在北方普及，使得北方热泵经销商也丧失创富的平台。
+    如今，热泵技术的大升级，让热泵采暖在北方普及成为现实，给北方热泵经销商赢来广阔的创富平台与空间。目前国家特别重视节能减排事业的发展，鼓励热泵采暖能得到广泛使用。如在今年1月，北京政府发布政策明确提出深层地热和燃煤燃油锅炉改用热泵给予50%的资金支持，力争到2017年全市热泵系统供暖面积达7000万平方米。又如今年两会，李克强总理提出淘汰5万台烧煤小锅炉，减轻北方雾霾等等。这些政策下，让热泵采暖赢得发展契机，也为北方热泵经销商带来无限商机。
+    媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。',0,'2015-04-03');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'节能热水器：空气能和太阳能相互竞争','同为节能产品，本该共谋发展，但如今，空气能热水器与太阳能热水器的生产厂商却似乎已经兵戎相见。其背后，国家相关扶持政策对热泵产业的有意倾斜也越来越明显。如2013年惠民工程，空气能热水器被纳入节能补贴范围，而且是单品补贴最高的产品。总体来说，国家对空气能产业的扶持政策相对客观许多。
+    相比传统热水器，空气能热水器最大的优势在节能和环保，2008年出台的《欧洲气候变化协定》就将空气源热泵技术认定为可再生能源，而不是像某太阳能龙头企业所说的，空气能热水器使用的是电力转化后的二次能源。目前，空气能热水器在发达国家的市场已经相当成熟，使用比例高达70%，在消费者当中也有较高的认知度。由于节能效果显着，在欧美国家，空气能热水器有着优厚的政策性补贴，并大力扶持空气能产业。
+    太阳能和空气能热水器都是节能产品，本应共同营造一个良好的市场环境，携手发展。而且在很长一段时间内，各种节能技术与产品不是取代和被取代的关系，而是互相补充的关系。这种补充不仅表现为不同应用领域的相互补充，还将是产品技术运用层面上的共融。太空能系列，将太阳能节能技术与空气能节能技术相融合，既突出了太阳能日常供热的节能性，又表现出了空气能高端技术产品的舒适安全、高效节能、绿色环保的特点。
+    从近几年来的形势来看，我国空气能产业迎来了绝佳的发展契机。在政策上，有国家先后出台多项扶助政策，频频“落实”。在行业上，又相继实施热泵热水器能效等级标准等多项行业标准，规范空气能市场秩序。在热泵企业中，也涌现出一大批有国家使命感和社会责任心的热泵企业全面推动空气能行业快速发展，为国家节能环保事业奉献。
+    热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，同时，多种节能技术广泛深入的整合运用必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-03-04');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'空气能成为主流热水器产品是必然趋势','近年来，随着空气能产业的快速崛起，产业迅猛发展对推动国家节能减排事业发展的发挥的作用也越来越突出，国家相关扶持政策对产业的有意倾斜也越来越明显。例如2013年惠民工程，空气能热水器被纳入节能补贴范围，而且是单品补贴最高的产品。总体上来，相比以前，现在国家对空气能产业的扶助政策相对可观许多。但相比发达国家的扶助政策，我国的扶助政策又显得小巫见大巫。
+   相比传统热水器，空气能热水器最大的优势在于节能和环保，2008年出台的《欧洲气候变化协定》就将空气源热泵技术认定为可再生能源。目前，空气能热水器在发达国家的市场已经相当成熟，使用比例高达70%，在消费者当中也有较高的认知度。由于节能效果显著，日本和欧美国家都有优厚的政策性补贴，大力扶持空气能产业。
+    在美国，从2001年开始美国每年安装空气能热水机40万台，并保持每年以10%的速度递增。美国节能法规定，购置空气能热水器等节能环保设备，居民该项支出额的30%可以抵所得税。
+    在法国，2006年规定，利用可再生能源和特定型号热泵设备的系统，则可以享受高达50%的税额减免(包括个人税、餐饮购物等消费税)。
+    在瑞典，2011年宣布，如果用热泵系统替换燃油和电热系统，将能获得政府每台1.2万到2万瑞典克郞(合约1800美元到3000美元)的奖励。
+    在日本，政府规定，向购买空气能热水器的消费者提供财政补贴，购买一台最高补贴可相当于人民币3000元左右。
+    ……
+    显然，发达国家出台政策对新兴空气能产业的扶持的力度要比我国大得多。严格意义上说，我国空气能热水器产业属于舶来品，是进入新世纪以来才从国外引进，发展历史和认知度都没发达国家的高，更需要国家政府的大力支持。不过，空气能热水器属于高端技术产品，舒适安全、高效节能、绿色环保，代表高品质的生活，随着国民生活水平的提高，空气能成为主流热水器产品也是必然趋势。
+    从近几年来的形势来看，我国空气能产业迎来了最绝佳的发展契机。在政策上，有国家先后出台多项扶助政策，频频“落实”。在行业上，又相继实施热泵热水器能效等级标准等多项行业标准，规范空气能市场秩序。在热泵企业中，也涌现出一大批有国家使命感和社会责任心的热泵企业全面推动空气能行业快速发展，为国家节能环保事业奉献。
+    热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-02-05');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'低温空气能热水器技术助力燃煤锅炉被替换','压缩机是空气能热水器的最核心的部件，空气能热水器能将空气中免费的能量“泵”到水中，进行制热，产生热水，全赖压缩机的作用。因此，压缩机相当于空气能热水器的“心脏”，压缩机性能的好坏，直接影响到热泵产品的整机性能。
+    由于压缩机技术的制约，使得部分实力较弱的热泵企业在开拓北方市场时显得力不从心，空气能热水器因此不能在北方普及，使得北方热泵经销商也丧失创富的平台。不过目前研制推出的，代表我国热泵地暖最高技术水平的“智享全能·超低温地暖热泵”，在零下25℃也能稳定运行，能在我国大部分北方地区使用，是北方热泵经销商掘金创富的好法器。
+    热泵技术的大升级，让热泵采暖在北方普及成为现实，给北方热泵经销商赢来广阔的创富平台与空间。目前国家特别重视节能减排事业的发展，鼓励热泵采暖能得到广泛使用。如在今年1月，北京政府发布政策明确提出深层地热和燃煤燃油锅炉改用热泵给予50%的资金支持，力争到2017年全市热泵系统供暖面积达7000万平方米。又如今年两会，李克强总理提出淘汰5万台烧煤小锅炉，减轻北方雾霾等等。这些政策下，让热泵采暖赢得发展契机，也为北方热泵经销商带来无限商机。
+    媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。',0,'2015-01-06');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\LG\trunk\Longgan\Longgan.Web\App_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
@@ -16,7 +11,10 @@
     <sheet name="Cases" sheetId="2" r:id="rId2"/>
     <sheet name="News" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="172">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,23 +650,32 @@
     <t>申银集团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>高温空气源（电镀槽专用）</t>
+  </si>
+  <si>
+    <t>GW01.png</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -677,7 +684,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -726,11 +733,39 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -997,7 +1032,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1005,18 +1040,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1083,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1059,11 +1094,11 @@
         <v>22</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G63" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',GETDATE(),'"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="G3:G64" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',GETDATE(),'"&amp;E3&amp;"');"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1113,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1128,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1143,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1158,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1173,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1188,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1203,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1218,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1233,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1248,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +1263,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1278,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1293,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1308,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1323,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1338,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1318,7 +1353,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,7 +1368,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1383,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1398,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,7 +1413,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵','','JY6.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,7 +1428,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1408,7 +1443,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1458,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -1438,7 +1473,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1488,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>168</v>
       </c>
@@ -1468,7 +1503,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY5.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>167</v>
       </c>
@@ -1483,7 +1518,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY6.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>167</v>
       </c>
@@ -1498,7 +1533,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY7.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>167</v>
       </c>
@@ -1513,7 +1548,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY8.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -1528,7 +1563,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY9.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>167</v>
       </c>
@@ -1543,7 +1578,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY10.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -1558,7 +1593,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +1608,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1588,7 +1623,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -1603,7 +1638,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1653,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +1668,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -1648,7 +1683,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -1663,7 +1698,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1713,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -1693,7 +1728,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -1708,7 +1743,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -1723,7 +1758,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1738,7 +1773,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -1753,7 +1788,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -1768,7 +1803,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1818,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -1798,7 +1833,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -1813,7 +1848,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -1828,7 +1863,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -1843,7 +1878,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -1858,7 +1893,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -1873,7 +1908,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -1888,7 +1923,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -1903,7 +1938,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -1918,7 +1953,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -1933,7 +1968,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -1948,7 +1983,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -1961,6 +1996,21 @@
       <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT9.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'高温空气源（电镀槽专用）','','GW01.png','',GETDATE(),'GW');</v>
       </c>
     </row>
   </sheetData>
@@ -1993,9 +2043,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2006,7 +2056,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2018,7 +2068,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ01.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2030,7 +2080,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ02.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2042,7 +2092,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ03.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -2054,7 +2104,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ04.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -2066,7 +2116,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ05.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -2078,7 +2128,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ06.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -2090,7 +2140,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ07.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -2102,7 +2152,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ08.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -2114,7 +2164,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ09.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -2126,7 +2176,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ10.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -2138,7 +2188,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ11.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -2150,7 +2200,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ12.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2162,7 +2212,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ13.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2174,7 +2224,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ14.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -2186,7 +2236,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ15.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2198,7 +2248,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ16.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -2210,7 +2260,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ17.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2222,7 +2272,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ18.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2234,7 +2284,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ19.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -2246,7 +2296,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'尚客优20吨热水','','AZ20.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -2258,7 +2308,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ21.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2270,7 +2320,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ22.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -2282,7 +2332,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ23.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2294,7 +2344,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ24.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -2306,7 +2356,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ25.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -2318,7 +2368,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ26.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -2330,7 +2380,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ27.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -2342,7 +2392,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ28.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -2354,7 +2404,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ29.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2366,7 +2416,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ30.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -2378,7 +2428,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ31.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -2390,7 +2440,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ32.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -2402,7 +2452,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ33.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -2414,7 +2464,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ34.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -2426,7 +2476,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ35.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -2438,7 +2488,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ36.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -2450,7 +2500,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ37.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2462,7 +2512,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ38.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -2474,7 +2524,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ39.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -2486,7 +2536,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ40.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -2498,7 +2548,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地暖','','AZ41.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -2525,13 +2575,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -2542,7 +2592,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="409.5">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -2562,7 +2612,7 @@
     天气转暖，用电高峰，较之使用传统热水器耗费电量，空气能热水器的优势已然相当明显。在即将到来的高温潮中，又是新的销售高峰。',0,'2015-06-01');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="409.5">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2583,7 +2633,7 @@
     空气能热水器于2002年进入国内市场开始参与到热水器行业的市场竞争当中，经过十余年的发展，不管是产品质量的稳定性、产品性能的可靠性、技术的创新性，还是其市场认知度，空气能热水器都有了很大的提升。据相关部门统计，2013年，我国空气能热水器市场规模达到95亿元，同比2012年增长41.83%。其中工程机市场为50亿元，占53%，家用机市场为45亿元，占47%。',0,'2015-05-02');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="405" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="409.5">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2601,7 +2651,7 @@
     媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。',0,'2015-04-03');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="409.5">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2620,7 +2670,7 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，同时，多种节能技术广泛深入的整合运用必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-03-04');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="409.5">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -2644,7 +2694,7 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-02-05');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="409.5">
       <c r="A7" t="s">
         <v>151</v>
       </c>

--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\LG\trunk\Longgan\Longgan.Web\App_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="164">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,32 +627,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DY5.jpg</t>
-  </si>
-  <si>
-    <t>DY6.jpg</t>
-  </si>
-  <si>
-    <t>DY7.jpg</t>
-  </si>
-  <si>
-    <t>DY8.jpg</t>
-  </si>
-  <si>
-    <t>DY9.jpg</t>
-  </si>
-  <si>
-    <t>DY10.jpg</t>
-  </si>
-  <si>
     <t>地源热泵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申银集团</t>
-  </si>
-  <si>
-    <t>申银集团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -664,18 +644,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -684,7 +664,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -733,8 +713,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1032,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1040,18 +1020,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G25" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1063,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1094,11 +1074,11 @@
         <v>22</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G64" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',GETDATE(),'"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="G3:G58" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',GETDATE(),'"&amp;E3&amp;"');"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1093,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1108,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1123,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1138,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1153,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1188,7 +1168,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1183,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1198,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1213,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +1228,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1243,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1258,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1273,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1308,7 +1288,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1323,7 +1303,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +1318,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1333,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1348,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1383,7 +1363,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1378,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1393,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵','','JY6.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1428,7 +1408,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,7 +1423,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1458,9 +1438,9 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
@@ -1473,7 +1453,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1488,527 +1468,437 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY5.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY6.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY7.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY8.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY9.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','DY10.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
         <v>27</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
         <v>27</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
         <v>27</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
         <v>27</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT9.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT9.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" t="s">
-        <v>170</v>
-      </c>
-      <c r="E64" t="s">
-        <v>171</v>
-      </c>
-      <c r="G64" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'高温空气源（电镀槽专用）','','GW01.png','',GETDATE(),'GW');</v>
       </c>
@@ -2043,9 +1933,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2056,7 +1946,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2068,7 +1958,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ01.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2080,7 +1970,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ02.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2092,7 +1982,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ03.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -2104,7 +1994,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ04.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -2116,7 +2006,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ05.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -2128,7 +2018,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ06.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -2140,7 +2030,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ07.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -2152,7 +2042,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ08.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -2164,7 +2054,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ09.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -2176,7 +2066,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ10.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -2188,7 +2078,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ11.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -2200,7 +2090,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ12.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2212,7 +2102,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ13.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2224,7 +2114,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ14.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -2236,7 +2126,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ15.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2248,7 +2138,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ16.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -2260,7 +2150,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ17.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2272,7 +2162,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ18.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2284,7 +2174,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ19.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -2296,7 +2186,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'尚客优20吨热水','','AZ20.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -2308,7 +2198,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ21.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2320,7 +2210,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ22.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -2332,7 +2222,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ23.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2344,7 +2234,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ24.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -2356,7 +2246,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ25.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -2368,7 +2258,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ26.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -2380,7 +2270,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ27.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -2392,7 +2282,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ28.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -2404,7 +2294,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ29.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2416,7 +2306,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ30.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -2428,7 +2318,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ31.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -2440,7 +2330,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ32.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -2452,7 +2342,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ33.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -2464,7 +2354,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ34.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -2476,7 +2366,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ35.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -2488,7 +2378,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ36.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -2500,7 +2390,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ37.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2512,7 +2402,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ38.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -2524,7 +2414,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ39.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -2536,7 +2426,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ40.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -2548,7 +2438,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地暖','','AZ41.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -2575,13 +2465,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -2592,7 +2482,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5">
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -2612,7 +2502,7 @@
     天气转暖，用电高峰，较之使用传统热水器耗费电量，空气能热水器的优势已然相当明显。在即将到来的高温潮中，又是新的销售高峰。',0,'2015-06-01');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5">
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2633,7 +2523,7 @@
     空气能热水器于2002年进入国内市场开始参与到热水器行业的市场竞争当中，经过十余年的发展，不管是产品质量的稳定性、产品性能的可靠性、技术的创新性，还是其市场认知度，空气能热水器都有了很大的提升。据相关部门统计，2013年，我国空气能热水器市场规模达到95亿元，同比2012年增长41.83%。其中工程机市场为50亿元，占53%，家用机市场为45亿元，占47%。',0,'2015-05-02');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.5">
+    <row r="4" spans="1:7" ht="405" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2651,7 +2541,7 @@
     媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。',0,'2015-04-03');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5">
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2670,7 +2560,7 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，同时，多种节能技术广泛深入的整合运用必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-03-04');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5">
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -2694,7 +2584,7 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-02-05');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5">
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>151</v>
       </c>

--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\LG\trunk\Longgan\Longgan.Web\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\LongGan\trunk\Longgan\Longgan.Web\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="197">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,32 +639,122 @@
   <si>
     <t>GW</t>
   </si>
+  <si>
+    <t>空调产品</t>
+  </si>
+  <si>
+    <t>家用型热泵</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>JY8.jpg</t>
+  </si>
+  <si>
+    <t>JY9.jpg</t>
+  </si>
+  <si>
+    <t>JY10.jpg</t>
+  </si>
+  <si>
+    <t>JY11.jpg</t>
+  </si>
+  <si>
+    <t>JY12.jpg</t>
+  </si>
+  <si>
+    <t>JY13.jpg</t>
+  </si>
+  <si>
+    <t>申银集团</t>
+  </si>
+  <si>
+    <t>SY-1.jpg</t>
+  </si>
+  <si>
+    <t>SY-2.jpg</t>
+  </si>
+  <si>
+    <t>SY-3.jpg</t>
+  </si>
+  <si>
+    <t>SY-4.jpg</t>
+  </si>
+  <si>
+    <t>SY-5.jpg</t>
+  </si>
+  <si>
+    <t>SY-6.jpg</t>
+  </si>
+  <si>
+    <t>SY-7.jpg</t>
+  </si>
+  <si>
+    <t>SY-9.jpg</t>
+  </si>
+  <si>
+    <t>SY-10.jpg</t>
+  </si>
+  <si>
+    <t>SY-11.jpg</t>
+  </si>
+  <si>
+    <t>SY-12.jpg</t>
+  </si>
+  <si>
+    <t>SY-13.jpg</t>
+  </si>
+  <si>
+    <t>SY-14.jpg</t>
+  </si>
+  <si>
+    <t>SY-15.jpg</t>
+  </si>
+  <si>
+    <t>SY-16.jpg</t>
+  </si>
+  <si>
+    <t>SY-18.jpg</t>
+  </si>
+  <si>
+    <t>SY-19.jpg</t>
+  </si>
+  <si>
+    <t>SY-20.jpg</t>
+  </si>
+  <si>
+    <t>SY-21.jpg</t>
+  </si>
+  <si>
+    <t>SY-22.jpg</t>
+  </si>
+  <si>
+    <t>SY-23.jpg</t>
+  </si>
+  <si>
+    <t>SY-24.jpg</t>
+  </si>
+  <si>
+    <t>SY-25.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,22 +777,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,9 +796,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1020,18 +1103,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G25" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65:G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1146,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1074,11 +1157,11 @@
         <v>22</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G58" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',GETDATE(),'"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="G3:G66" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',GETDATE(),'"&amp;E3&amp;"');"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1093,8 +1176,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -1108,8 +1191,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
@@ -1123,8 +1206,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
@@ -1138,8 +1221,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -1153,8 +1236,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -1168,8 +1251,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -1183,8 +1266,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -1198,8 +1281,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
@@ -1213,8 +1296,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
@@ -1228,8 +1311,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -1243,8 +1326,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
@@ -1258,8 +1341,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
@@ -1273,8 +1356,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
@@ -1288,8 +1371,8 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
@@ -1303,7 +1386,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1401,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,7 +1416,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1431,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,9 +1446,9 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -1378,7 +1461,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1476,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵','','JY6.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1401,14 +1484,14 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,7 +1506,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,7 +1521,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -1453,7 +1536,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1468,7 +1551,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -1483,7 +1566,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,7 +1581,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1513,7 +1596,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1528,7 +1611,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1543,7 +1626,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -1558,7 +1641,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +1656,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -1588,7 +1671,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1603,7 +1686,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1701,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -1633,7 +1716,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1731,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1746,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -1678,7 +1761,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1693,7 +1776,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1708,7 +1791,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -1723,7 +1806,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,7 +1821,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,7 +1836,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -1768,7 +1851,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -1783,7 +1866,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1881,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1896,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -1828,7 +1911,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -1843,7 +1926,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -1858,7 +1941,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -1873,9 +1956,9 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
@@ -1888,7 +1971,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT9.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>161</v>
       </c>
@@ -1901,6 +1984,441 @@
       <c r="G58" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'高温空气源（电镀槽专用）','','GW01.png','',GETDATE(),'GW');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY10.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-1.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G87" si="1">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"',GETDATE(),'"&amp;E67&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-11.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s">
+        <v>194</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>196</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
   </sheetData>
@@ -1933,9 +2451,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -1946,7 +2464,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -1958,7 +2476,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ01.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -1970,7 +2488,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ02.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -1982,7 +2500,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ03.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -1994,7 +2512,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ04.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -2006,7 +2524,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ05.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -2018,7 +2536,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ06.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -2030,7 +2548,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ07.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -2042,7 +2560,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ08.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -2054,7 +2572,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ09.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -2066,7 +2584,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ10.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -2078,7 +2596,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ11.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -2090,7 +2608,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ12.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2102,7 +2620,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ13.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2114,7 +2632,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ14.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -2126,7 +2644,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ15.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2138,7 +2656,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ16.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -2150,7 +2668,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ17.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2162,7 +2680,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ18.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2174,7 +2692,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ19.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -2186,7 +2704,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'尚客优20吨热水','','AZ20.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -2198,7 +2716,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ21.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2210,7 +2728,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ22.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -2222,7 +2740,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ23.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2234,7 +2752,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ24.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -2246,7 +2764,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ25.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -2258,7 +2776,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ26.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -2270,7 +2788,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ27.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -2282,7 +2800,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ28.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -2294,7 +2812,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ29.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2306,7 +2824,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ30.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -2318,7 +2836,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ31.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -2330,7 +2848,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ32.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -2342,7 +2860,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ33.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -2354,7 +2872,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ34.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -2366,7 +2884,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ35.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -2378,7 +2896,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ36.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -2390,7 +2908,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ37.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2402,7 +2920,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ38.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -2414,7 +2932,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ39.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -2426,7 +2944,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ40.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -2438,7 +2956,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地暖','','AZ41.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -2462,34 +2980,34 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="409.5">
       <c r="A2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>154</v>
       </c>
       <c r="G2" t="str">
@@ -2502,14 +3020,14 @@
     天气转暖，用电高峰，较之使用传统热水器耗费电量，空气能热水器的优势已然相当明显。在即将到来的高温潮中，又是新的销售高峰。',0,'2015-06-01');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="409.5">
       <c r="A3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>155</v>
       </c>
       <c r="G3" t="str">
@@ -2523,14 +3041,14 @@
     空气能热水器于2002年进入国内市场开始参与到热水器行业的市场竞争当中，经过十余年的发展，不管是产品质量的稳定性、产品性能的可靠性、技术的创新性，还是其市场认知度，空气能热水器都有了很大的提升。据相关部门统计，2013年，我国空气能热水器市场规模达到95亿元，同比2012年增长41.83%。其中工程机市场为50亿元，占53%，家用机市场为45亿元，占47%。',0,'2015-05-02');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="405" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="409.5">
       <c r="A4" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>156</v>
       </c>
       <c r="G4" t="str">
@@ -2541,14 +3059,14 @@
     媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。',0,'2015-04-03');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="409.5">
       <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G5" t="str">
@@ -2560,14 +3078,14 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，同时，多种节能技术广泛深入的整合运用必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-03-04');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="409.5">
       <c r="A6" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>158</v>
       </c>
       <c r="G6" t="str">
@@ -2584,14 +3102,14 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-02-05');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="409.5">
       <c r="A7" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="G7" t="str">

--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="198">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>SY-25.jpg</t>
+  </si>
+  <si>
+    <t>PriorityNum</t>
   </si>
 </sst>
 </file>
@@ -760,12 +763,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -782,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +802,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,1340 +1118,1609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65:G87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',GETDATE(),'"&amp;E2&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"',GETDATE(),'"&amp;F2&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',GETDATE(),'"&amp;E3&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"',GETDATE(),'"&amp;F3&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"',GETDATE(),'"&amp;F4&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"',GETDATE(),'"&amp;F5&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"',GETDATE(),'"&amp;F6&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"',GETDATE(),'"&amp;F7&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"',GETDATE(),'"&amp;F8&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"',GETDATE(),'"&amp;F9&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"',GETDATE(),'"&amp;F10&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"',GETDATE(),'"&amp;F11&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>160</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"',GETDATE(),'"&amp;F12&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A13&amp;"','"&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"',GETDATE(),'"&amp;F13&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A14&amp;"','"&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"',GETDATE(),'"&amp;F14&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"',GETDATE(),'"&amp;F15&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'高温空气源（电镀槽专用）','','GW01.png','',GETDATE(),'GW');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>164</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"',GETDATE(),'"&amp;F16&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>164</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A17&amp;"','"&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"',GETDATE(),'"&amp;F17&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A18&amp;"','"&amp;C18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"',GETDATE(),'"&amp;F18&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A19&amp;"','"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"',GETDATE(),'"&amp;F19&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵','','JY6.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A20&amp;"','"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"',GETDATE(),'"&amp;F20&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A21&amp;"','"&amp;C21&amp;"','"&amp;D21&amp;"','"&amp;E21&amp;"',GETDATE(),'"&amp;F21&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A22&amp;"','"&amp;C22&amp;"','"&amp;D22&amp;"','"&amp;E22&amp;"',GETDATE(),'"&amp;F22&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A23&amp;"','"&amp;C23&amp;"','"&amp;D23&amp;"','"&amp;E23&amp;"',GETDATE(),'"&amp;F23&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A24&amp;"','"&amp;C24&amp;"','"&amp;D24&amp;"','"&amp;E24&amp;"',GETDATE(),'"&amp;F24&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A25&amp;"','"&amp;C25&amp;"','"&amp;D25&amp;"','"&amp;E25&amp;"',GETDATE(),'"&amp;F25&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A26&amp;"','"&amp;C26&amp;"','"&amp;D26&amp;"','"&amp;E26&amp;"',GETDATE(),'"&amp;F26&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"',GETDATE(),'"&amp;F27&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY10.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵','','JY6.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A28&amp;"','"&amp;C28&amp;"','"&amp;D28&amp;"','"&amp;E28&amp;"',GETDATE(),'"&amp;F28&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>164</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A29&amp;"','"&amp;C29&amp;"','"&amp;D29&amp;"','"&amp;E29&amp;"',GETDATE(),'"&amp;F29&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT9.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A30&amp;"','"&amp;C30&amp;"','"&amp;D30&amp;"','"&amp;E30&amp;"',GETDATE(),'"&amp;F30&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A31&amp;"','"&amp;C31&amp;"','"&amp;D31&amp;"','"&amp;E31&amp;"',GETDATE(),'"&amp;F31&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A32&amp;"','"&amp;C32&amp;"','"&amp;D32&amp;"','"&amp;E32&amp;"',GETDATE(),'"&amp;F32&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A33&amp;"','"&amp;C33&amp;"','"&amp;D33&amp;"','"&amp;E33&amp;"',GETDATE(),'"&amp;F33&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A34&amp;"','"&amp;C34&amp;"','"&amp;D34&amp;"','"&amp;E34&amp;"',GETDATE(),'"&amp;F34&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A35&amp;"','"&amp;C35&amp;"','"&amp;D35&amp;"','"&amp;E35&amp;"',GETDATE(),'"&amp;F35&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A36&amp;"','"&amp;C36&amp;"','"&amp;D36&amp;"','"&amp;E36&amp;"',GETDATE(),'"&amp;F36&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A37&amp;"','"&amp;C37&amp;"','"&amp;D37&amp;"','"&amp;E37&amp;"',GETDATE(),'"&amp;F37&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
         <v>27</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A38&amp;"','"&amp;C38&amp;"','"&amp;D38&amp;"','"&amp;E38&amp;"',GETDATE(),'"&amp;F38&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
         <v>27</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A39&amp;"','"&amp;C39&amp;"','"&amp;D39&amp;"','"&amp;E39&amp;"',GETDATE(),'"&amp;F39&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A40&amp;"','"&amp;C40&amp;"','"&amp;D40&amp;"','"&amp;E40&amp;"',GETDATE(),'"&amp;F40&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A41&amp;"','"&amp;C41&amp;"','"&amp;D41&amp;"','"&amp;E41&amp;"',GETDATE(),'"&amp;F41&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A42&amp;"','"&amp;C42&amp;"','"&amp;D42&amp;"','"&amp;E42&amp;"',GETDATE(),'"&amp;F42&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A43&amp;"','"&amp;C43&amp;"','"&amp;D43&amp;"','"&amp;E43&amp;"',GETDATE(),'"&amp;F43&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A44&amp;"','"&amp;C44&amp;"','"&amp;D44&amp;"','"&amp;E44&amp;"',GETDATE(),'"&amp;F44&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A45&amp;"','"&amp;C45&amp;"','"&amp;D45&amp;"','"&amp;E45&amp;"',GETDATE(),'"&amp;F45&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A46&amp;"','"&amp;C46&amp;"','"&amp;D46&amp;"','"&amp;E46&amp;"',GETDATE(),'"&amp;F46&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A47&amp;"','"&amp;C47&amp;"','"&amp;D47&amp;"','"&amp;E47&amp;"',GETDATE(),'"&amp;F47&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A48&amp;"','"&amp;C48&amp;"','"&amp;D48&amp;"','"&amp;E48&amp;"',GETDATE(),'"&amp;F48&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A49&amp;"','"&amp;C49&amp;"','"&amp;D49&amp;"','"&amp;E49&amp;"',GETDATE(),'"&amp;F49&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A50&amp;"','"&amp;C50&amp;"','"&amp;D50&amp;"','"&amp;E50&amp;"',GETDATE(),'"&amp;F50&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A51&amp;"','"&amp;C51&amp;"','"&amp;D51&amp;"','"&amp;E51&amp;"',GETDATE(),'"&amp;F51&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A52&amp;"','"&amp;C52&amp;"','"&amp;D52&amp;"','"&amp;E52&amp;"',GETDATE(),'"&amp;F52&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A53&amp;"','"&amp;C53&amp;"','"&amp;D53&amp;"','"&amp;E53&amp;"',GETDATE(),'"&amp;F53&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A54&amp;"','"&amp;C54&amp;"','"&amp;D54&amp;"','"&amp;E54&amp;"',GETDATE(),'"&amp;F54&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A55&amp;"','"&amp;C55&amp;"','"&amp;D55&amp;"','"&amp;E55&amp;"',GETDATE(),'"&amp;F55&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A56&amp;"','"&amp;C56&amp;"','"&amp;D56&amp;"','"&amp;E56&amp;"',GETDATE(),'"&amp;F56&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT9.jpg','',GETDATE(),'KT');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A57&amp;"','"&amp;C57&amp;"','"&amp;D57&amp;"','"&amp;E57&amp;"',GETDATE(),'"&amp;F57&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'高温空气源（电镀槽专用）','','GW01.png','',GETDATE(),'GW');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A58&amp;"','"&amp;C58&amp;"','"&amp;D58&amp;"','"&amp;E58&amp;"',GETDATE(),'"&amp;F58&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A59&amp;"','"&amp;C59&amp;"','"&amp;D59&amp;"','"&amp;E59&amp;"',GETDATE(),'"&amp;F59&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A60&amp;"','"&amp;C60&amp;"','"&amp;D60&amp;"','"&amp;E60&amp;"',GETDATE(),'"&amp;F60&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" t="s">
-        <v>166</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY10.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A61&amp;"','"&amp;C61&amp;"','"&amp;D61&amp;"','"&amp;E61&amp;"',GETDATE(),'"&amp;F61&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" t="s">
-        <v>170</v>
-      </c>
-      <c r="E62" t="s">
-        <v>166</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A62&amp;"','"&amp;C62&amp;"','"&amp;D62&amp;"','"&amp;E62&amp;"',GETDATE(),'"&amp;F62&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" t="s">
-        <v>171</v>
-      </c>
-      <c r="E63" t="s">
-        <v>166</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A63&amp;"','"&amp;C63&amp;"','"&amp;D63&amp;"','"&amp;E63&amp;"',GETDATE(),'"&amp;F63&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" t="s">
-        <v>172</v>
-      </c>
-      <c r="E64" t="s">
-        <v>166</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A64&amp;"','"&amp;C64&amp;"','"&amp;D64&amp;"','"&amp;E64&amp;"',GETDATE(),'"&amp;F64&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-1.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A65&amp;"','"&amp;C65&amp;"','"&amp;D65&amp;"','"&amp;E65&amp;"',GETDATE(),'"&amp;F65&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C66" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A66&amp;"','"&amp;C66&amp;"','"&amp;D66&amp;"','"&amp;E66&amp;"',GETDATE(),'"&amp;F66&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" t="s">
-        <v>176</v>
-      </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" ref="G67:G87" si="1">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"',GETDATE(),'"&amp;E67&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"','"&amp;E67&amp;"',GETDATE(),'"&amp;F67&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C68" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A68&amp;"','"&amp;C68&amp;"','"&amp;D68&amp;"','"&amp;E68&amp;"',GETDATE(),'"&amp;F68&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C69" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A69&amp;"','"&amp;C69&amp;"','"&amp;D69&amp;"','"&amp;E69&amp;"',GETDATE(),'"&amp;F69&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C70" t="s">
-        <v>179</v>
-      </c>
-      <c r="E70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A70&amp;"','"&amp;C70&amp;"','"&amp;D70&amp;"','"&amp;E70&amp;"',GETDATE(),'"&amp;F70&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" t="s">
-        <v>180</v>
-      </c>
-      <c r="E71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A71&amp;"','"&amp;C71&amp;"','"&amp;D71&amp;"','"&amp;E71&amp;"',GETDATE(),'"&amp;F71&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C72" t="s">
-        <v>181</v>
-      </c>
-      <c r="E72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A72&amp;"','"&amp;C72&amp;"','"&amp;D72&amp;"','"&amp;E72&amp;"',GETDATE(),'"&amp;F72&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A73&amp;"','"&amp;C73&amp;"','"&amp;D73&amp;"','"&amp;E73&amp;"',GETDATE(),'"&amp;F73&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
         <v>183</v>
       </c>
-      <c r="E74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="1"/>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A74&amp;"','"&amp;C74&amp;"','"&amp;D74&amp;"','"&amp;E74&amp;"',GETDATE(),'"&amp;F74&amp;"');"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-11.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A75&amp;"','"&amp;C75&amp;"','"&amp;D75&amp;"','"&amp;E75&amp;"',GETDATE(),'"&amp;F75&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C76" t="s">
-        <v>185</v>
-      </c>
-      <c r="E76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A76&amp;"','"&amp;C76&amp;"','"&amp;D76&amp;"','"&amp;E76&amp;"',GETDATE(),'"&amp;F76&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" t="s">
-        <v>186</v>
-      </c>
-      <c r="E77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A77&amp;"','"&amp;C77&amp;"','"&amp;D77&amp;"','"&amp;E77&amp;"',GETDATE(),'"&amp;F77&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C78" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A78&amp;"','"&amp;C78&amp;"','"&amp;D78&amp;"','"&amp;E78&amp;"',GETDATE(),'"&amp;F78&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-1.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C79" t="s">
-        <v>188</v>
-      </c>
-      <c r="E79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A79&amp;"','"&amp;C79&amp;"','"&amp;D79&amp;"','"&amp;E79&amp;"',GETDATE(),'"&amp;F79&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A80&amp;"','"&amp;C80&amp;"','"&amp;D80&amp;"','"&amp;E80&amp;"',GETDATE(),'"&amp;F80&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" t="s">
-        <v>190</v>
-      </c>
-      <c r="E81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A81&amp;"','"&amp;C81&amp;"','"&amp;D81&amp;"','"&amp;E81&amp;"',GETDATE(),'"&amp;F81&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C82" t="s">
-        <v>191</v>
-      </c>
-      <c r="E82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A82&amp;"','"&amp;C82&amp;"','"&amp;D82&amp;"','"&amp;E82&amp;"',GETDATE(),'"&amp;F82&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C83" t="s">
-        <v>192</v>
-      </c>
-      <c r="E83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A83&amp;"','"&amp;C83&amp;"','"&amp;D83&amp;"','"&amp;E83&amp;"',GETDATE(),'"&amp;F83&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" t="s">
-        <v>193</v>
-      </c>
-      <c r="E84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A84&amp;"','"&amp;C84&amp;"','"&amp;D84&amp;"','"&amp;E84&amp;"',GETDATE(),'"&amp;F84&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" t="s">
-        <v>194</v>
-      </c>
-      <c r="E85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A85&amp;"','"&amp;C85&amp;"','"&amp;D85&amp;"','"&amp;E85&amp;"',GETDATE(),'"&amp;F85&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" t="s">
-        <v>195</v>
-      </c>
-      <c r="E86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY');</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A86&amp;"','"&amp;C86&amp;"','"&amp;D86&amp;"','"&amp;E86&amp;"',GETDATE(),'"&amp;F86&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" t="s">
-        <v>196</v>
-      </c>
-      <c r="E87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY');</v>
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="str">
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A87&amp;"','"&amp;C87&amp;"','"&amp;D87&amp;"','"&amp;E87&amp;"',GETDATE(),'"&amp;F87&amp;"',"&amp;B87&amp;");"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY',0);</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H87">
+    <sortCondition ref="F2:F87"/>
+    <sortCondition ref="B2:B87"/>
+    <sortCondition descending="1" ref="D2:D87"/>
+    <sortCondition ref="A2:A87"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_26.html"/>
-    <hyperlink ref="A6" r:id="rId2" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_27.html"/>
-    <hyperlink ref="A7" r:id="rId3" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_28.html"/>
-    <hyperlink ref="A8" r:id="rId4" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_29.html"/>
-    <hyperlink ref="A9" r:id="rId5" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_30.html"/>
-    <hyperlink ref="A10" r:id="rId6" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_31.html"/>
-    <hyperlink ref="A11" r:id="rId7" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_32.html"/>
-    <hyperlink ref="A12" r:id="rId8" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
-    <hyperlink ref="A13" r:id="rId9" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
+    <hyperlink ref="A86" r:id="rId1" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_26.html"/>
+    <hyperlink ref="A85" r:id="rId2" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_27.html"/>
+    <hyperlink ref="A73" r:id="rId3" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_28.html"/>
+    <hyperlink ref="A71" r:id="rId4" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_29.html"/>
+    <hyperlink ref="A84" r:id="rId5" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_30.html"/>
+    <hyperlink ref="A83" r:id="rId6" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_31.html"/>
+    <hyperlink ref="A82" r:id="rId7" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_32.html"/>
+    <hyperlink ref="A81" r:id="rId8" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
+    <hyperlink ref="A80" r:id="rId9" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
     <hyperlink ref="A14:A15" r:id="rId10" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
-    <hyperlink ref="A16" r:id="rId11" tooltip="水箱" display="http://szlonggan.com/productshow_12_75.html"/>
-    <hyperlink ref="A17" r:id="rId12" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
-    <hyperlink ref="A18" r:id="rId13" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
+    <hyperlink ref="A69" r:id="rId11" tooltip="水箱" display="http://szlonggan.com/productshow_12_75.html"/>
+    <hyperlink ref="A65" r:id="rId12" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
+    <hyperlink ref="A63" r:id="rId13" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId14"/>

--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -1121,8 +1121,8 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,38 +1153,38 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"',GETDATE(),'"&amp;F2&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"',GETDATE(),'"&amp;F3&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1195,32 +1195,32 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"',GETDATE(),'"&amp;F4&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
       <c r="H5" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"',GETDATE(),'"&amp;F5&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1315,74 +1315,74 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="H11" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"',GETDATE(),'"&amp;F11&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="H12" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"',GETDATE(),'"&amp;F12&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A13&amp;"','"&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"',GETDATE(),'"&amp;F13&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A14&amp;"','"&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"',GETDATE(),'"&amp;F14&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1405,146 +1405,146 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="H16" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"',GETDATE(),'"&amp;F16&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="H17" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A17&amp;"','"&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"',GETDATE(),'"&amp;F17&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="H18" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A18&amp;"','"&amp;C18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"',GETDATE(),'"&amp;F18&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
       </c>
       <c r="H19" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A19&amp;"','"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"',GETDATE(),'"&amp;F19&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵','','JY6.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
       </c>
       <c r="H20" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A20&amp;"','"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"',GETDATE(),'"&amp;F20&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
       </c>
       <c r="H21" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A21&amp;"','"&amp;C21&amp;"','"&amp;D21&amp;"','"&amp;E21&amp;"',GETDATE(),'"&amp;F21&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵','','JY6.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="H22" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A22&amp;"','"&amp;C22&amp;"','"&amp;D22&amp;"','"&amp;E22&amp;"',GETDATE(),'"&amp;F22&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="H23" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A23&amp;"','"&amp;C23&amp;"','"&amp;D23&amp;"','"&amp;E23&amp;"',GETDATE(),'"&amp;F23&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1555,14 +1555,14 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
         <v>166</v>
       </c>
       <c r="H24" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A24&amp;"','"&amp;C24&amp;"','"&amp;D24&amp;"','"&amp;E24&amp;"',GETDATE(),'"&amp;F24&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1573,14 +1573,14 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
         <v>166</v>
       </c>
       <c r="H25" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A25&amp;"','"&amp;C25&amp;"','"&amp;D25&amp;"','"&amp;E25&amp;"',GETDATE(),'"&amp;F25&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1591,14 +1591,14 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
         <v>166</v>
       </c>
       <c r="H26" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A26&amp;"','"&amp;C26&amp;"','"&amp;D26&amp;"','"&amp;E26&amp;"',GETDATE(),'"&amp;F26&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1609,32 +1609,32 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
         <v>166</v>
       </c>
       <c r="H27" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"',GETDATE(),'"&amp;F27&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY10.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="H28" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A28&amp;"','"&amp;C28&amp;"','"&amp;D28&amp;"','"&amp;E28&amp;"',GETDATE(),'"&amp;F28&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY10.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1981,272 +1981,272 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
       </c>
       <c r="H48" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A48&amp;"','"&amp;C48&amp;"','"&amp;D48&amp;"','"&amp;E48&amp;"',GETDATE(),'"&amp;F48&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
       </c>
       <c r="H49" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A49&amp;"','"&amp;C49&amp;"','"&amp;D49&amp;"','"&amp;E49&amp;"',GETDATE(),'"&amp;F49&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
       </c>
       <c r="H50" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A50&amp;"','"&amp;C50&amp;"','"&amp;D50&amp;"','"&amp;E50&amp;"',GETDATE(),'"&amp;F50&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
       </c>
       <c r="H51" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A51&amp;"','"&amp;C51&amp;"','"&amp;D51&amp;"','"&amp;E51&amp;"',GETDATE(),'"&amp;F51&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
       </c>
       <c r="H52" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A52&amp;"','"&amp;C52&amp;"','"&amp;D52&amp;"','"&amp;E52&amp;"',GETDATE(),'"&amp;F52&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY');</v>
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A52&amp;"','"&amp;C52&amp;"','"&amp;D52&amp;"','"&amp;E52&amp;"',GETDATE(),'"&amp;F52&amp;"',"&amp;B52&amp;");"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY',0);</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
       </c>
       <c r="H53" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A53&amp;"','"&amp;C53&amp;"','"&amp;D53&amp;"','"&amp;E53&amp;"',GETDATE(),'"&amp;F53&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
       </c>
       <c r="H54" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A54&amp;"','"&amp;C54&amp;"','"&amp;D54&amp;"','"&amp;E54&amp;"',GETDATE(),'"&amp;F54&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
       </c>
       <c r="H55" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A55&amp;"','"&amp;C55&amp;"','"&amp;D55&amp;"','"&amp;E55&amp;"',GETDATE(),'"&amp;F55&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
       </c>
       <c r="H56" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A56&amp;"','"&amp;C56&amp;"','"&amp;D56&amp;"','"&amp;E56&amp;"',GETDATE(),'"&amp;F56&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
       </c>
       <c r="H57" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A57&amp;"','"&amp;C57&amp;"','"&amp;D57&amp;"','"&amp;E57&amp;"',GETDATE(),'"&amp;F57&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
       </c>
       <c r="H58" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A58&amp;"','"&amp;C58&amp;"','"&amp;D58&amp;"','"&amp;E58&amp;"',GETDATE(),'"&amp;F58&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
       </c>
       <c r="H59" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A59&amp;"','"&amp;C59&amp;"','"&amp;D59&amp;"','"&amp;E59&amp;"',GETDATE(),'"&amp;F59&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
       </c>
       <c r="H60" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A60&amp;"','"&amp;C60&amp;"','"&amp;D60&amp;"','"&amp;E60&amp;"',GETDATE(),'"&amp;F60&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
       </c>
       <c r="H61" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A61&amp;"','"&amp;C61&amp;"','"&amp;D61&amp;"','"&amp;E61&amp;"',GETDATE(),'"&amp;F61&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
       </c>
       <c r="H62" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A62&amp;"','"&amp;C62&amp;"','"&amp;D62&amp;"','"&amp;E62&amp;"',GETDATE(),'"&amp;F62&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2257,50 +2257,50 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
       </c>
       <c r="H63" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A63&amp;"','"&amp;C63&amp;"','"&amp;D63&amp;"','"&amp;E63&amp;"',GETDATE(),'"&amp;F63&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
       </c>
       <c r="H64" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A64&amp;"','"&amp;C64&amp;"','"&amp;D64&amp;"','"&amp;E64&amp;"',GETDATE(),'"&amp;F64&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
       </c>
       <c r="H65" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A65&amp;"','"&amp;C65&amp;"','"&amp;D65&amp;"','"&amp;E65&amp;"',GETDATE(),'"&amp;F65&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2311,32 +2311,32 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
       </c>
       <c r="H66" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A66&amp;"','"&amp;C66&amp;"','"&amp;D66&amp;"','"&amp;E66&amp;"',GETDATE(),'"&amp;F66&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
       </c>
       <c r="H67" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"','"&amp;E67&amp;"',GETDATE(),'"&amp;F67&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2347,32 +2347,32 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
       </c>
       <c r="H68" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A68&amp;"','"&amp;C68&amp;"','"&amp;D68&amp;"','"&amp;E68&amp;"',GETDATE(),'"&amp;F68&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
       </c>
       <c r="H69" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A69&amp;"','"&amp;C69&amp;"','"&amp;D69&amp;"','"&amp;E69&amp;"',GETDATE(),'"&amp;F69&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2383,32 +2383,32 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
       </c>
       <c r="H70" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A70&amp;"','"&amp;C70&amp;"','"&amp;D70&amp;"','"&amp;E70&amp;"',GETDATE(),'"&amp;F70&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
       </c>
       <c r="H71" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A71&amp;"','"&amp;C71&amp;"','"&amp;D71&amp;"','"&amp;E71&amp;"',GETDATE(),'"&amp;F71&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2419,32 +2419,32 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
       </c>
       <c r="H72" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A72&amp;"','"&amp;C72&amp;"','"&amp;D72&amp;"','"&amp;E72&amp;"',GETDATE(),'"&amp;F72&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
       </c>
       <c r="H73" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A73&amp;"','"&amp;C73&amp;"','"&amp;D73&amp;"','"&amp;E73&amp;"',GETDATE(),'"&amp;F73&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2455,32 +2455,32 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
       </c>
       <c r="H74" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A74&amp;"','"&amp;C74&amp;"','"&amp;D74&amp;"','"&amp;E74&amp;"',GETDATE(),'"&amp;F74&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-11.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
       </c>
       <c r="H75" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A75&amp;"','"&amp;C75&amp;"','"&amp;D75&amp;"','"&amp;E75&amp;"',GETDATE(),'"&amp;F75&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2491,32 +2491,32 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
       </c>
       <c r="H76" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A76&amp;"','"&amp;C76&amp;"','"&amp;D76&amp;"','"&amp;E76&amp;"',GETDATE(),'"&amp;F76&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
       </c>
       <c r="H77" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A77&amp;"','"&amp;C77&amp;"','"&amp;D77&amp;"','"&amp;E77&amp;"',GETDATE(),'"&amp;F77&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2527,200 +2527,199 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
       </c>
       <c r="H78" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A78&amp;"','"&amp;C78&amp;"','"&amp;D78&amp;"','"&amp;E78&amp;"',GETDATE(),'"&amp;F78&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-1.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
       </c>
       <c r="H79" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A79&amp;"','"&amp;C79&amp;"','"&amp;D79&amp;"','"&amp;E79&amp;"',GETDATE(),'"&amp;F79&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
       </c>
       <c r="H80" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A80&amp;"','"&amp;C80&amp;"','"&amp;D80&amp;"','"&amp;E80&amp;"',GETDATE(),'"&amp;F80&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
       </c>
       <c r="H81" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A81&amp;"','"&amp;C81&amp;"','"&amp;D81&amp;"','"&amp;E81&amp;"',GETDATE(),'"&amp;F81&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
       </c>
       <c r="H82" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A82&amp;"','"&amp;C82&amp;"','"&amp;D82&amp;"','"&amp;E82&amp;"',GETDATE(),'"&amp;F82&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
       </c>
       <c r="H83" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A83&amp;"','"&amp;C83&amp;"','"&amp;D83&amp;"','"&amp;E83&amp;"',GETDATE(),'"&amp;F83&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
       </c>
       <c r="H84" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A84&amp;"','"&amp;C84&amp;"','"&amp;D84&amp;"','"&amp;E84&amp;"',GETDATE(),'"&amp;F84&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
       </c>
       <c r="H85" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A85&amp;"','"&amp;C85&amp;"','"&amp;D85&amp;"','"&amp;E85&amp;"',GETDATE(),'"&amp;F85&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-11.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
       </c>
       <c r="H86" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A86&amp;"','"&amp;C86&amp;"','"&amp;D86&amp;"','"&amp;E86&amp;"',GETDATE(),'"&amp;F86&amp;"');"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY');</v>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
       </c>
       <c r="H87" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A87&amp;"','"&amp;C87&amp;"','"&amp;D87&amp;"','"&amp;E87&amp;"',GETDATE(),'"&amp;F87&amp;"',"&amp;B87&amp;");"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY',0);</v>
+        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A87&amp;"','"&amp;C87&amp;"','"&amp;D87&amp;"','"&amp;E87&amp;"',GETDATE(),'"&amp;F87&amp;"');"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-1.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:H87">
     <sortCondition ref="F2:F87"/>
     <sortCondition ref="B2:B87"/>
-    <sortCondition descending="1" ref="D2:D87"/>
     <sortCondition ref="A2:A87"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A86" r:id="rId1" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_26.html"/>
-    <hyperlink ref="A85" r:id="rId2" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_27.html"/>
-    <hyperlink ref="A73" r:id="rId3" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_28.html"/>
-    <hyperlink ref="A71" r:id="rId4" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_29.html"/>
-    <hyperlink ref="A84" r:id="rId5" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_30.html"/>
-    <hyperlink ref="A83" r:id="rId6" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_31.html"/>
-    <hyperlink ref="A82" r:id="rId7" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_32.html"/>
-    <hyperlink ref="A81" r:id="rId8" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
-    <hyperlink ref="A80" r:id="rId9" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
+    <hyperlink ref="A57" r:id="rId1" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_26.html"/>
+    <hyperlink ref="A56" r:id="rId2" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_27.html"/>
+    <hyperlink ref="A55" r:id="rId3" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_28.html"/>
+    <hyperlink ref="A54" r:id="rId4" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_29.html"/>
+    <hyperlink ref="A50" r:id="rId5" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_30.html"/>
+    <hyperlink ref="A49" r:id="rId6" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_31.html"/>
+    <hyperlink ref="A48" r:id="rId7" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_32.html"/>
+    <hyperlink ref="A61" r:id="rId8" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
+    <hyperlink ref="A60" r:id="rId9" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
     <hyperlink ref="A14:A15" r:id="rId10" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
-    <hyperlink ref="A69" r:id="rId11" tooltip="水箱" display="http://szlonggan.com/productshow_12_75.html"/>
-    <hyperlink ref="A65" r:id="rId12" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
-    <hyperlink ref="A63" r:id="rId13" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
+    <hyperlink ref="A64" r:id="rId11" tooltip="水箱" display="http://szlonggan.com/productshow_12_75.html"/>
+    <hyperlink ref="A63" r:id="rId12" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
+    <hyperlink ref="A62" r:id="rId13" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId14"/>

--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\LongGan\trunk\Longgan\Longgan.Web\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\LG\trunk\Longgan\Longgan.Web\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -746,18 +746,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -812,7 +812,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1121,17 +1121,17 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1165,16 +1165,16 @@
         <v>28</v>
       </c>
       <c r="H2" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"',GETDATE(),'"&amp;F2&amp;"');"</f>
+        <f t="shared" ref="H2:H33" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"',GETDATE(),'"&amp;F2&amp;"');"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>83</v>
@@ -1183,16 +1183,16 @@
         <v>28</v>
       </c>
       <c r="H3" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"',GETDATE(),'"&amp;F3&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>85</v>
@@ -1201,16 +1201,16 @@
         <v>28</v>
       </c>
       <c r="H4" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"',GETDATE(),'"&amp;F4&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>82</v>
@@ -1219,16 +1219,16 @@
         <v>28</v>
       </c>
       <c r="H5" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"',GETDATE(),'"&amp;F5&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -1237,16 +1237,16 @@
         <v>28</v>
       </c>
       <c r="H6" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"',GETDATE(),'"&amp;F6&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -1255,16 +1255,16 @@
         <v>28</v>
       </c>
       <c r="H7" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"',GETDATE(),'"&amp;F7&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>79</v>
@@ -1273,16 +1273,16 @@
         <v>28</v>
       </c>
       <c r="H8" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"',GETDATE(),'"&amp;F8&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>78</v>
@@ -1291,16 +1291,16 @@
         <v>28</v>
       </c>
       <c r="H9" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"',GETDATE(),'"&amp;F9&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -1309,16 +1309,16 @@
         <v>28</v>
       </c>
       <c r="H10" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"',GETDATE(),'"&amp;F10&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ');</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -1327,16 +1327,16 @@
         <v>25</v>
       </c>
       <c r="H11" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"',GETDATE(),'"&amp;F11&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="H12" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"',GETDATE(),'"&amp;F12&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
@@ -1363,16 +1363,16 @@
         <v>25</v>
       </c>
       <c r="H13" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A13&amp;"','"&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"',GETDATE(),'"&amp;F13&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -1381,16 +1381,16 @@
         <v>25</v>
       </c>
       <c r="H14" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A14&amp;"','"&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"',GETDATE(),'"&amp;F14&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY');</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>162</v>
@@ -1399,16 +1399,16 @@
         <v>163</v>
       </c>
       <c r="H15" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"',GETDATE(),'"&amp;F15&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'高温空气源（电镀槽专用）','','GW01.png','',GETDATE(),'GW');</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1417,16 +1417,16 @@
         <v>23</v>
       </c>
       <c r="H16" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"',GETDATE(),'"&amp;F16&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
@@ -1435,16 +1435,16 @@
         <v>23</v>
       </c>
       <c r="H17" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A17&amp;"','"&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"',GETDATE(),'"&amp;F17&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
@@ -1453,16 +1453,16 @@
         <v>23</v>
       </c>
       <c r="H18" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A18&amp;"','"&amp;C18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"',GETDATE(),'"&amp;F18&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
@@ -1471,16 +1471,16 @@
         <v>23</v>
       </c>
       <c r="H19" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A19&amp;"','"&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"',GETDATE(),'"&amp;F19&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -1489,16 +1489,16 @@
         <v>23</v>
       </c>
       <c r="H20" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A20&amp;"','"&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"',GETDATE(),'"&amp;F20&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
@@ -1507,16 +1507,16 @@
         <v>23</v>
       </c>
       <c r="H21" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A21&amp;"','"&amp;C21&amp;"','"&amp;D21&amp;"','"&amp;E21&amp;"',GETDATE(),'"&amp;F21&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵','','JY6.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -1525,16 +1525,16 @@
         <v>166</v>
       </c>
       <c r="H22" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A22&amp;"','"&amp;C22&amp;"','"&amp;D22&amp;"','"&amp;E22&amp;"',GETDATE(),'"&amp;F22&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>168</v>
@@ -1543,16 +1543,16 @@
         <v>166</v>
       </c>
       <c r="H23" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A23&amp;"','"&amp;C23&amp;"','"&amp;D23&amp;"','"&amp;E23&amp;"',GETDATE(),'"&amp;F23&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>167</v>
@@ -1561,16 +1561,16 @@
         <v>166</v>
       </c>
       <c r="H24" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A24&amp;"','"&amp;C24&amp;"','"&amp;D24&amp;"','"&amp;E24&amp;"',GETDATE(),'"&amp;F24&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>172</v>
@@ -1579,16 +1579,16 @@
         <v>166</v>
       </c>
       <c r="H25" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A25&amp;"','"&amp;C25&amp;"','"&amp;D25&amp;"','"&amp;E25&amp;"',GETDATE(),'"&amp;F25&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>171</v>
@@ -1597,16 +1597,16 @@
         <v>166</v>
       </c>
       <c r="H26" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A26&amp;"','"&amp;C26&amp;"','"&amp;D26&amp;"','"&amp;E26&amp;"',GETDATE(),'"&amp;F26&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -1615,16 +1615,16 @@
         <v>166</v>
       </c>
       <c r="H27" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"','"&amp;E27&amp;"',GETDATE(),'"&amp;F27&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>169</v>
@@ -1633,16 +1633,16 @@
         <v>166</v>
       </c>
       <c r="H28" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A28&amp;"','"&amp;C28&amp;"','"&amp;D28&amp;"','"&amp;E28&amp;"',GETDATE(),'"&amp;F28&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','JY10.jpg','',GETDATE(),'JY');</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>76</v>
@@ -1651,16 +1651,16 @@
         <v>29</v>
       </c>
       <c r="H29" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A29&amp;"','"&amp;C29&amp;"','"&amp;D29&amp;"','"&amp;E29&amp;"',GETDATE(),'"&amp;F29&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT9.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>75</v>
@@ -1669,16 +1669,16 @@
         <v>29</v>
       </c>
       <c r="H30" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A30&amp;"','"&amp;C30&amp;"','"&amp;D30&amp;"','"&amp;E30&amp;"',GETDATE(),'"&amp;F30&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>74</v>
@@ -1687,16 +1687,16 @@
         <v>29</v>
       </c>
       <c r="H31" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A31&amp;"','"&amp;C31&amp;"','"&amp;D31&amp;"','"&amp;E31&amp;"',GETDATE(),'"&amp;F31&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
@@ -1705,16 +1705,16 @@
         <v>29</v>
       </c>
       <c r="H32" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A32&amp;"','"&amp;C32&amp;"','"&amp;D32&amp;"','"&amp;E32&amp;"',GETDATE(),'"&amp;F32&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>72</v>
@@ -1723,16 +1723,16 @@
         <v>29</v>
       </c>
       <c r="H33" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A33&amp;"','"&amp;C33&amp;"','"&amp;D33&amp;"','"&amp;E33&amp;"',GETDATE(),'"&amp;F33&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>71</v>
@@ -1741,16 +1741,16 @@
         <v>29</v>
       </c>
       <c r="H34" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A34&amp;"','"&amp;C34&amp;"','"&amp;D34&amp;"','"&amp;E34&amp;"',GETDATE(),'"&amp;F34&amp;"');"</f>
+        <f t="shared" ref="H34:H51" si="1">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A34&amp;"','"&amp;C34&amp;"','"&amp;D34&amp;"','"&amp;E34&amp;"',GETDATE(),'"&amp;F34&amp;"');"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>70</v>
@@ -1759,16 +1759,16 @@
         <v>29</v>
       </c>
       <c r="H35" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A35&amp;"','"&amp;C35&amp;"','"&amp;D35&amp;"','"&amp;E35&amp;"',GETDATE(),'"&amp;F35&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -1777,16 +1777,16 @@
         <v>29</v>
       </c>
       <c r="H36" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A36&amp;"','"&amp;C36&amp;"','"&amp;D36&amp;"','"&amp;E36&amp;"',GETDATE(),'"&amp;F36&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
@@ -1795,16 +1795,16 @@
         <v>29</v>
       </c>
       <c r="H37" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A37&amp;"','"&amp;C37&amp;"','"&amp;D37&amp;"','"&amp;E37&amp;"',GETDATE(),'"&amp;F37&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT');</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
         <v>67</v>
@@ -1813,16 +1813,16 @@
         <v>27</v>
       </c>
       <c r="H38" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A38&amp;"','"&amp;C38&amp;"','"&amp;D38&amp;"','"&amp;E38&amp;"',GETDATE(),'"&amp;F38&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>66</v>
@@ -1831,16 +1831,16 @@
         <v>27</v>
       </c>
       <c r="H39" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A39&amp;"','"&amp;C39&amp;"','"&amp;D39&amp;"','"&amp;E39&amp;"',GETDATE(),'"&amp;F39&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
@@ -1849,16 +1849,16 @@
         <v>27</v>
       </c>
       <c r="H40" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A40&amp;"','"&amp;C40&amp;"','"&amp;D40&amp;"','"&amp;E40&amp;"',GETDATE(),'"&amp;F40&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
         <v>64</v>
@@ -1867,16 +1867,16 @@
         <v>27</v>
       </c>
       <c r="H41" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A41&amp;"','"&amp;C41&amp;"','"&amp;D41&amp;"','"&amp;E41&amp;"',GETDATE(),'"&amp;F41&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>63</v>
@@ -1885,16 +1885,16 @@
         <v>27</v>
       </c>
       <c r="H42" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A42&amp;"','"&amp;C42&amp;"','"&amp;D42&amp;"','"&amp;E42&amp;"',GETDATE(),'"&amp;F42&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
         <v>62</v>
@@ -1903,16 +1903,16 @@
         <v>27</v>
       </c>
       <c r="H43" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A43&amp;"','"&amp;C43&amp;"','"&amp;D43&amp;"','"&amp;E43&amp;"',GETDATE(),'"&amp;F43&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>61</v>
@@ -1921,16 +1921,16 @@
         <v>27</v>
       </c>
       <c r="H44" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A44&amp;"','"&amp;C44&amp;"','"&amp;D44&amp;"','"&amp;E44&amp;"',GETDATE(),'"&amp;F44&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
@@ -1939,16 +1939,16 @@
         <v>27</v>
       </c>
       <c r="H45" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A45&amp;"','"&amp;C45&amp;"','"&amp;D45&amp;"','"&amp;E45&amp;"',GETDATE(),'"&amp;F45&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
         <v>59</v>
@@ -1957,16 +1957,16 @@
         <v>27</v>
       </c>
       <c r="H46" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A46&amp;"','"&amp;C46&amp;"','"&amp;D46&amp;"','"&amp;E46&amp;"',GETDATE(),'"&amp;F46&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>58</v>
@@ -1975,16 +1975,16 @@
         <v>27</v>
       </c>
       <c r="H47" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A47&amp;"','"&amp;C47&amp;"','"&amp;D47&amp;"','"&amp;E47&amp;"',GETDATE(),'"&amp;F47&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ');</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
@@ -1993,16 +1993,16 @@
         <v>22</v>
       </c>
       <c r="H48" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A48&amp;"','"&amp;C48&amp;"','"&amp;D48&amp;"','"&amp;E48&amp;"',GETDATE(),'"&amp;F48&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
         <v>38</v>
@@ -2011,16 +2011,16 @@
         <v>22</v>
       </c>
       <c r="H49" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A49&amp;"','"&amp;C49&amp;"','"&amp;D49&amp;"','"&amp;E49&amp;"',GETDATE(),'"&amp;F49&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
         <v>37</v>
@@ -2029,16 +2029,16 @@
         <v>22</v>
       </c>
       <c r="H50" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A50&amp;"','"&amp;C50&amp;"','"&amp;D50&amp;"','"&amp;E50&amp;"',GETDATE(),'"&amp;F50&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>31</v>
@@ -2047,16 +2047,16 @@
         <v>22</v>
       </c>
       <c r="H51" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A51&amp;"','"&amp;C51&amp;"','"&amp;D51&amp;"','"&amp;E51&amp;"',GETDATE(),'"&amp;F51&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>30</v>
@@ -2066,15 +2066,15 @@
       </c>
       <c r="H52" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A52&amp;"','"&amp;C52&amp;"','"&amp;D52&amp;"','"&amp;E52&amp;"',GETDATE(),'"&amp;F52&amp;"',"&amp;B52&amp;");"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY',0);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY',50);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>32</v>
@@ -2083,16 +2083,16 @@
         <v>22</v>
       </c>
       <c r="H53" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A53&amp;"','"&amp;C53&amp;"','"&amp;D53&amp;"','"&amp;E53&amp;"',GETDATE(),'"&amp;F53&amp;"');"</f>
+        <f t="shared" ref="H53:H87" si="2">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A53&amp;"','"&amp;C53&amp;"','"&amp;D53&amp;"','"&amp;E53&amp;"',GETDATE(),'"&amp;F53&amp;"');"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
         <v>36</v>
@@ -2101,16 +2101,16 @@
         <v>22</v>
       </c>
       <c r="H54" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A54&amp;"','"&amp;C54&amp;"','"&amp;D54&amp;"','"&amp;E54&amp;"',GETDATE(),'"&amp;F54&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -2119,16 +2119,16 @@
         <v>22</v>
       </c>
       <c r="H55" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A55&amp;"','"&amp;C55&amp;"','"&amp;D55&amp;"','"&amp;E55&amp;"',GETDATE(),'"&amp;F55&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
         <v>34</v>
@@ -2137,16 +2137,16 @@
         <v>22</v>
       </c>
       <c r="H56" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A56&amp;"','"&amp;C56&amp;"','"&amp;D56&amp;"','"&amp;E56&amp;"',GETDATE(),'"&amp;F56&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -2155,16 +2155,16 @@
         <v>22</v>
       </c>
       <c r="H57" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A57&amp;"','"&amp;C57&amp;"','"&amp;D57&amp;"','"&amp;E57&amp;"',GETDATE(),'"&amp;F57&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
         <v>43</v>
@@ -2173,16 +2173,16 @@
         <v>22</v>
       </c>
       <c r="H58" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A58&amp;"','"&amp;C58&amp;"','"&amp;D58&amp;"','"&amp;E58&amp;"',GETDATE(),'"&amp;F58&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -2191,16 +2191,16 @@
         <v>22</v>
       </c>
       <c r="H59" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A59&amp;"','"&amp;C59&amp;"','"&amp;D59&amp;"','"&amp;E59&amp;"',GETDATE(),'"&amp;F59&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
         <v>41</v>
@@ -2209,16 +2209,16 @@
         <v>22</v>
       </c>
       <c r="H60" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A60&amp;"','"&amp;C60&amp;"','"&amp;D60&amp;"','"&amp;E60&amp;"',GETDATE(),'"&amp;F60&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
         <v>40</v>
@@ -2227,16 +2227,16 @@
         <v>22</v>
       </c>
       <c r="H61" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A61&amp;"','"&amp;C61&amp;"','"&amp;D61&amp;"','"&amp;E61&amp;"',GETDATE(),'"&amp;F61&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
         <v>46</v>
@@ -2245,16 +2245,16 @@
         <v>22</v>
       </c>
       <c r="H62" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A62&amp;"','"&amp;C62&amp;"','"&amp;D62&amp;"','"&amp;E62&amp;"',GETDATE(),'"&amp;F62&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
         <v>45</v>
@@ -2263,16 +2263,16 @@
         <v>22</v>
       </c>
       <c r="H63" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A63&amp;"','"&amp;C63&amp;"','"&amp;D63&amp;"','"&amp;E63&amp;"',GETDATE(),'"&amp;F63&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
         <v>44</v>
@@ -2281,16 +2281,16 @@
         <v>22</v>
       </c>
       <c r="H64" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A64&amp;"','"&amp;C64&amp;"','"&amp;D64&amp;"','"&amp;E64&amp;"',GETDATE(),'"&amp;F64&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B65" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
         <v>181</v>
@@ -2299,16 +2299,16 @@
         <v>22</v>
       </c>
       <c r="H65" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A65&amp;"','"&amp;C65&amp;"','"&amp;D65&amp;"','"&amp;E65&amp;"',GETDATE(),'"&amp;F65&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
         <v>180</v>
@@ -2317,16 +2317,16 @@
         <v>22</v>
       </c>
       <c r="H66" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A66&amp;"','"&amp;C66&amp;"','"&amp;D66&amp;"','"&amp;E66&amp;"',GETDATE(),'"&amp;F66&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B67" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
         <v>179</v>
@@ -2335,16 +2335,16 @@
         <v>22</v>
       </c>
       <c r="H67" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"','"&amp;E67&amp;"',GETDATE(),'"&amp;F67&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
         <v>178</v>
@@ -2353,16 +2353,16 @@
         <v>22</v>
       </c>
       <c r="H68" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A68&amp;"','"&amp;C68&amp;"','"&amp;D68&amp;"','"&amp;E68&amp;"',GETDATE(),'"&amp;F68&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
         <v>177</v>
@@ -2371,16 +2371,16 @@
         <v>22</v>
       </c>
       <c r="H69" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A69&amp;"','"&amp;C69&amp;"','"&amp;D69&amp;"','"&amp;E69&amp;"',GETDATE(),'"&amp;F69&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
         <v>176</v>
@@ -2389,16 +2389,16 @@
         <v>22</v>
       </c>
       <c r="H70" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A70&amp;"','"&amp;C70&amp;"','"&amp;D70&amp;"','"&amp;E70&amp;"',GETDATE(),'"&amp;F70&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
         <v>196</v>
@@ -2407,16 +2407,16 @@
         <v>22</v>
       </c>
       <c r="H71" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A71&amp;"','"&amp;C71&amp;"','"&amp;D71&amp;"','"&amp;E71&amp;"',GETDATE(),'"&amp;F71&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D72" t="s">
         <v>195</v>
@@ -2425,16 +2425,16 @@
         <v>22</v>
       </c>
       <c r="H72" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A72&amp;"','"&amp;C72&amp;"','"&amp;D72&amp;"','"&amp;E72&amp;"',GETDATE(),'"&amp;F72&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B73" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
         <v>194</v>
@@ -2443,16 +2443,16 @@
         <v>22</v>
       </c>
       <c r="H73" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A73&amp;"','"&amp;C73&amp;"','"&amp;D73&amp;"','"&amp;E73&amp;"',GETDATE(),'"&amp;F73&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
         <v>193</v>
@@ -2461,16 +2461,16 @@
         <v>22</v>
       </c>
       <c r="H74" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A74&amp;"','"&amp;C74&amp;"','"&amp;D74&amp;"','"&amp;E74&amp;"',GETDATE(),'"&amp;F74&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
         <v>192</v>
@@ -2479,16 +2479,16 @@
         <v>22</v>
       </c>
       <c r="H75" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A75&amp;"','"&amp;C75&amp;"','"&amp;D75&amp;"','"&amp;E75&amp;"',GETDATE(),'"&amp;F75&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B76" s="1">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
         <v>191</v>
@@ -2497,16 +2497,16 @@
         <v>22</v>
       </c>
       <c r="H76" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A76&amp;"','"&amp;C76&amp;"','"&amp;D76&amp;"','"&amp;E76&amp;"',GETDATE(),'"&amp;F76&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
         <v>175</v>
@@ -2515,16 +2515,16 @@
         <v>22</v>
       </c>
       <c r="H77" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A77&amp;"','"&amp;C77&amp;"','"&amp;D77&amp;"','"&amp;E77&amp;"',GETDATE(),'"&amp;F77&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B78" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D78" t="s">
         <v>190</v>
@@ -2533,16 +2533,16 @@
         <v>22</v>
       </c>
       <c r="H78" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A78&amp;"','"&amp;C78&amp;"','"&amp;D78&amp;"','"&amp;E78&amp;"',GETDATE(),'"&amp;F78&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
         <v>189</v>
@@ -2551,16 +2551,16 @@
         <v>22</v>
       </c>
       <c r="H79" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A79&amp;"','"&amp;C79&amp;"','"&amp;D79&amp;"','"&amp;E79&amp;"',GETDATE(),'"&amp;F79&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
         <v>188</v>
@@ -2569,16 +2569,16 @@
         <v>22</v>
       </c>
       <c r="H80" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A80&amp;"','"&amp;C80&amp;"','"&amp;D80&amp;"','"&amp;E80&amp;"',GETDATE(),'"&amp;F80&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B81" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
         <v>187</v>
@@ -2587,16 +2587,16 @@
         <v>22</v>
       </c>
       <c r="H81" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A81&amp;"','"&amp;C81&amp;"','"&amp;D81&amp;"','"&amp;E81&amp;"',GETDATE(),'"&amp;F81&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
         <v>186</v>
@@ -2605,16 +2605,16 @@
         <v>22</v>
       </c>
       <c r="H82" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A82&amp;"','"&amp;C82&amp;"','"&amp;D82&amp;"','"&amp;E82&amp;"',GETDATE(),'"&amp;F82&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B83" s="1">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D83" t="s">
         <v>185</v>
@@ -2623,16 +2623,16 @@
         <v>22</v>
       </c>
       <c r="H83" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A83&amp;"','"&amp;C83&amp;"','"&amp;D83&amp;"','"&amp;E83&amp;"',GETDATE(),'"&amp;F83&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B84" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D84" t="s">
         <v>184</v>
@@ -2641,16 +2641,16 @@
         <v>22</v>
       </c>
       <c r="H84" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A84&amp;"','"&amp;C84&amp;"','"&amp;D84&amp;"','"&amp;E84&amp;"',GETDATE(),'"&amp;F84&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D85" t="s">
         <v>183</v>
@@ -2659,16 +2659,16 @@
         <v>22</v>
       </c>
       <c r="H85" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A85&amp;"','"&amp;C85&amp;"','"&amp;D85&amp;"','"&amp;E85&amp;"',GETDATE(),'"&amp;F85&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-11.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
         <v>182</v>
@@ -2677,16 +2677,16 @@
         <v>22</v>
       </c>
       <c r="H86" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A86&amp;"','"&amp;C86&amp;"','"&amp;D86&amp;"','"&amp;E86&amp;"',GETDATE(),'"&amp;F86&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
         <v>174</v>
@@ -2695,7 +2695,7 @@
         <v>22</v>
       </c>
       <c r="H87" t="str">
-        <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'"&amp;A87&amp;"','"&amp;C87&amp;"','"&amp;D87&amp;"','"&amp;E87&amp;"',GETDATE(),'"&amp;F87&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type])VALUES (NEWID(),'申银集团','','SY-1.jpg','',GETDATE(),'SY');</v>
       </c>
     </row>
@@ -2734,9 +2734,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ01.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ02.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ03.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ04.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ05.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ06.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ07.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ08.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ09.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ10.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ11.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ12.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ13.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ14.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ15.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ16.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ17.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ18.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ19.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'尚客优20吨热水','','AZ20.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ21.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ22.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ23.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ24.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ25.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ26.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ27.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ28.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ29.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ30.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ31.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'南京四五四解放军医院','','AZ32.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ33.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州农业大学热水工程','','AZ34.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ35.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ36.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ37.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ38.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ39.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ40.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地暖','','AZ41.jpg',GETDATE());</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -3266,13 +3266,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5">
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -3303,7 +3303,7 @@
     天气转暖，用电高峰，较之使用传统热水器耗费电量，空气能热水器的优势已然相当明显。在即将到来的高温潮中，又是新的销售高峰。',0,'2015-06-01');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5">
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -3324,7 +3324,7 @@
     空气能热水器于2002年进入国内市场开始参与到热水器行业的市场竞争当中，经过十余年的发展，不管是产品质量的稳定性、产品性能的可靠性、技术的创新性，还是其市场认知度，空气能热水器都有了很大的提升。据相关部门统计，2013年，我国空气能热水器市场规模达到95亿元，同比2012年增长41.83%。其中工程机市场为50亿元，占53%，家用机市场为45亿元，占47%。',0,'2015-05-02');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.5">
+    <row r="4" spans="1:7" ht="405" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3342,7 +3342,7 @@
     媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。',0,'2015-04-03');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5">
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -3361,7 +3361,7 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，同时，多种节能技术广泛深入的整合运用必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-03-04');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5">
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -3385,7 +3385,7 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-02-05');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5">
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>151</v>
       </c>

--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="309">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -740,6 +740,355 @@
   </si>
   <si>
     <t>PriorityNum</t>
+  </si>
+  <si>
+    <t>AZ43.jpg</t>
+  </si>
+  <si>
+    <t>AZ44.jpg</t>
+  </si>
+  <si>
+    <t>AZ45.jpg</t>
+  </si>
+  <si>
+    <t>AZ46.jpg</t>
+  </si>
+  <si>
+    <t>AZ47.jpg</t>
+  </si>
+  <si>
+    <t>AZ48.jpg</t>
+  </si>
+  <si>
+    <t>AZ49.jpg</t>
+  </si>
+  <si>
+    <t>AZ50.jpg</t>
+  </si>
+  <si>
+    <t>中央水空调及空气源热泵热水维护保养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ51.jpg</t>
+  </si>
+  <si>
+    <t>AZ52.jpg</t>
+  </si>
+  <si>
+    <t>AZ53.jpg</t>
+  </si>
+  <si>
+    <t>AZ54.jpg</t>
+  </si>
+  <si>
+    <t>北桥北海宾馆、人才公寓热水售后维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ55.jpg</t>
+  </si>
+  <si>
+    <t>AZ56.jpg</t>
+  </si>
+  <si>
+    <t>AZ57.jpg</t>
+  </si>
+  <si>
+    <t>AZ58.jpg</t>
+  </si>
+  <si>
+    <t>家用空气源热泵热水安装调试正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ59.jpg</t>
+  </si>
+  <si>
+    <t>AZ60.jpg</t>
+  </si>
+  <si>
+    <t>AZ61.jpg</t>
+  </si>
+  <si>
+    <t>AZ62.jpg</t>
+  </si>
+  <si>
+    <t>常熟沙家浜别墅地源热泵保压中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ63.jpg</t>
+  </si>
+  <si>
+    <t>AZ64.jpg</t>
+  </si>
+  <si>
+    <t>AZ65.jpg</t>
+  </si>
+  <si>
+    <t>AZ66.jpg</t>
+  </si>
+  <si>
+    <t>浒关浴场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ67.jpg</t>
+  </si>
+  <si>
+    <t>AZ68.jpg</t>
+  </si>
+  <si>
+    <t>AZ69.jpg</t>
+  </si>
+  <si>
+    <t>AZ70.jpg</t>
+  </si>
+  <si>
+    <t>AZ71.jpg</t>
+  </si>
+  <si>
+    <t>AZ72.jpg</t>
+  </si>
+  <si>
+    <t>AZ73.jpg</t>
+  </si>
+  <si>
+    <t>AZ74.jpg</t>
+  </si>
+  <si>
+    <t>AZ75.jpg</t>
+  </si>
+  <si>
+    <t>AZ76.jpg</t>
+  </si>
+  <si>
+    <t>AZ77.jpg</t>
+  </si>
+  <si>
+    <t>AZ78.jpg</t>
+  </si>
+  <si>
+    <t>AZ79.jpg</t>
+  </si>
+  <si>
+    <t>AZ80.jpg</t>
+  </si>
+  <si>
+    <t>湖桥乐活岛空气源热泵热水安装调试正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ81.jpg</t>
+  </si>
+  <si>
+    <t>AZ82.jpg</t>
+  </si>
+  <si>
+    <t>AZ83.jpg</t>
+  </si>
+  <si>
+    <t>AZ84.jpg</t>
+  </si>
+  <si>
+    <t>AZ85.jpg</t>
+  </si>
+  <si>
+    <t>AZ86.jpg</t>
+  </si>
+  <si>
+    <t>AZ87.jpg</t>
+  </si>
+  <si>
+    <t>甪直宾馆空气源热泵热水调试正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ88.jpg</t>
+  </si>
+  <si>
+    <t>AZ89.jpg</t>
+  </si>
+  <si>
+    <t>AZ90.jpg</t>
+  </si>
+  <si>
+    <t>相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ91.jpg</t>
+  </si>
+  <si>
+    <t>AZ92.jpg</t>
+  </si>
+  <si>
+    <t>AZ93.jpg</t>
+  </si>
+  <si>
+    <t>AZ94.jpg</t>
+  </si>
+  <si>
+    <t>AZ95.jpg</t>
+  </si>
+  <si>
+    <t>相城凯翔广场空气源热泵热水施工中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ96.jpg</t>
+  </si>
+  <si>
+    <t>AZ97.jpg</t>
+  </si>
+  <si>
+    <t>AZ98.jpg</t>
+  </si>
+  <si>
+    <t>石路宾馆空气源热泵水箱吊装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ99.jpg</t>
+  </si>
+  <si>
+    <t>AZ100.jpg</t>
+  </si>
+  <si>
+    <t>AZ101.jpg</t>
+  </si>
+  <si>
+    <t>AZ102.jpg</t>
+  </si>
+  <si>
+    <t>AZ103.jpg</t>
+  </si>
+  <si>
+    <t>AZ104.jpg</t>
+  </si>
+  <si>
+    <t>AZ105.jpg</t>
+  </si>
+  <si>
+    <t>AZ106.jpg</t>
+  </si>
+  <si>
+    <t>AZ107.jpg</t>
+  </si>
+  <si>
+    <t>石路热水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ108.jpg</t>
+  </si>
+  <si>
+    <t>AZ109.jpg</t>
+  </si>
+  <si>
+    <t>AZ110.jpg</t>
+  </si>
+  <si>
+    <t>AZ111.jpg</t>
+  </si>
+  <si>
+    <t>空气源热泵热水售后维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ112.jpg</t>
+  </si>
+  <si>
+    <t>AZ113.jpg</t>
+  </si>
+  <si>
+    <t>AZ114.jpg</t>
+  </si>
+  <si>
+    <t>AZ115.jpg</t>
+  </si>
+  <si>
+    <t>AZ116.jpg</t>
+  </si>
+  <si>
+    <t>AZ117.jpg</t>
+  </si>
+  <si>
+    <t>AZ118.jpg</t>
+  </si>
+  <si>
+    <t>AZ119.jpg</t>
+  </si>
+  <si>
+    <t>AZ120.jpg</t>
+  </si>
+  <si>
+    <t>AZ121.jpg</t>
+  </si>
+  <si>
+    <t>AZ122.jpg</t>
+  </si>
+  <si>
+    <t>AZ123.jpg</t>
+  </si>
+  <si>
+    <t>AZ124.jpg</t>
+  </si>
+  <si>
+    <t>AZ125.jpg</t>
+  </si>
+  <si>
+    <t>AZ126.jpg</t>
+  </si>
+  <si>
+    <t>AZ127.jpg</t>
+  </si>
+  <si>
+    <t>AZ128.jpg</t>
+  </si>
+  <si>
+    <t>胜浦凤凰城汉庭酒店空气源热泵热水正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ129.jpg</t>
+  </si>
+  <si>
+    <t>AZ130.jpg</t>
+  </si>
+  <si>
+    <t>苏州第三中学空气源热泵热水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ131.jpg</t>
+  </si>
+  <si>
+    <t>AZ132.jpg</t>
+  </si>
+  <si>
+    <t>西山缥缈峰空气源热泵热水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ133.jpg</t>
+  </si>
+  <si>
+    <t>AZ134.jpg</t>
+  </si>
+  <si>
+    <t>AZ135.jpg</t>
+  </si>
+  <si>
+    <t>AZ136.jpg</t>
+  </si>
+  <si>
+    <t>AZ137.jpg</t>
+  </si>
+  <si>
+    <t>青剑湖工地工人洗澡空气源热泵热水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1120,9 +1469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2728,10 +3077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44:G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2767,7 +3116,7 @@
         <v>91</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G43" si="0">"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',GETDATE());"</f>
+        <f t="shared" ref="G3:G66" si="0">"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',GETDATE());"</f>
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'案例','','AZ02.jpg',GETDATE());</v>
       </c>
     </row>
@@ -3249,6 +3598,1146 @@
       <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'别墅地源热泵','','AZ42.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ43.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ44.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ45.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ46.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ47.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ48.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ49.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ50.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ51.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" t="s">
+        <v>208</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ52.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ53.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>210</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ54.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ55.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ56.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ57.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ58.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>217</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ59.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" t="s">
+        <v>218</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ60.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ61.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" t="s">
+        <v>220</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ62.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'浒关浴场','','AZ63.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" t="s">
+        <v>223</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'浒关浴场','','AZ64.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'浒关浴场','','AZ65.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"',GETDATE());"</f>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'浒关浴场','','AZ66.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ67.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ68.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ69.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ70.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ71.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ72.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" t="s">
+        <v>233</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ73.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ74.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ75.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" t="s">
+        <v>236</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ76.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ77.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ78.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ79.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ80.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" t="s">
+        <v>242</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ81.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>243</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ82.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" t="s">
+        <v>244</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ83.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" t="s">
+        <v>245</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ84.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s">
+        <v>246</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ85.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" t="s">
+        <v>247</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ86.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" t="s">
+        <v>248</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ87.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间','','AZ88.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" t="s">
+        <v>251</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间','','AZ89.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" t="s">
+        <v>252</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间','','AZ90.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" t="s">
+        <v>254</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ91.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" t="s">
+        <v>255</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ92.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" t="s">
+        <v>256</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ93.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" t="s">
+        <v>257</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ94.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" t="s">
+        <v>258</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ95.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" t="s">
+        <v>260</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路宾馆空气源热泵水箱吊装','','AZ96.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" t="s">
+        <v>261</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路宾馆空气源热泵水箱吊装','','AZ97.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" t="s">
+        <v>262</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路宾馆空气源热泵水箱吊装','','AZ98.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" t="s">
+        <v>264</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路热水','','AZ99.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" t="s">
+        <v>265</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路热水','','AZ100.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" t="s">
+        <v>266</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路热水','','AZ101.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" t="s">
+        <v>267</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路热水','','AZ102.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" t="s">
+        <v>268</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路热水','','AZ103.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" t="s">
+        <v>269</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路热水','','AZ104.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" t="s">
+        <v>270</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路热水','','AZ105.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" t="s">
+        <v>271</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路热水','','AZ106.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" t="s">
+        <v>272</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'石路热水','','AZ107.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" t="s">
+        <v>274</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ108.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" t="s">
+        <v>275</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ109.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>278</v>
+      </c>
+      <c r="C111" t="s">
+        <v>276</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ110.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" t="s">
+        <v>277</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ111.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" t="s">
+        <v>279</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ112.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" t="s">
+        <v>280</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ113.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" t="s">
+        <v>281</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ114.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>296</v>
+      </c>
+      <c r="C116" t="s">
+        <v>282</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ115.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117" t="s">
+        <v>283</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ116.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" t="s">
+        <v>284</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ117.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" t="s">
+        <v>285</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ118.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" t="s">
+        <v>286</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ119.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121" t="s">
+        <v>287</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ120.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" t="s">
+        <v>288</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ121.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>296</v>
+      </c>
+      <c r="C123" t="s">
+        <v>289</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ122.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>296</v>
+      </c>
+      <c r="C124" t="s">
+        <v>290</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ123.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>296</v>
+      </c>
+      <c r="C125" t="s">
+        <v>291</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ124.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>296</v>
+      </c>
+      <c r="C126" t="s">
+        <v>292</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ125.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" t="s">
+        <v>293</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ126.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" t="s">
+        <v>294</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ127.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" t="s">
+        <v>295</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ128.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>299</v>
+      </c>
+      <c r="C130" t="s">
+        <v>297</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州第三中学空气源热泵热水','','AZ129.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>299</v>
+      </c>
+      <c r="C131" t="s">
+        <v>298</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G138" si="2">"INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'"&amp;A131&amp;"','"&amp;B131&amp;"','"&amp;C131&amp;"',GETDATE());"</f>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'苏州第三中学空气源热泵热水','','AZ130.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>302</v>
+      </c>
+      <c r="C132" t="s">
+        <v>300</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'西山缥缈峰空气源热泵热水','','AZ131.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>302</v>
+      </c>
+      <c r="C133" t="s">
+        <v>301</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'西山缥缈峰空气源热泵热水','','AZ132.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>308</v>
+      </c>
+      <c r="C134" t="s">
+        <v>303</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ133.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>308</v>
+      </c>
+      <c r="C135" t="s">
+        <v>304</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ134.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>308</v>
+      </c>
+      <c r="C136" t="s">
+        <v>305</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ135.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>308</v>
+      </c>
+      <c r="C137" t="s">
+        <v>306</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ136.jpg',GETDATE());</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>308</v>
+      </c>
+      <c r="C138" t="s">
+        <v>307</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ137.jpg',GETDATE());</v>
       </c>
     </row>
   </sheetData>

--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\LongGan\trunk\Longgan\Longgan.Web\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\LG\trunk\Longgan\Longgan.Web\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" tabRatio="416" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" tabRatio="416"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="293">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家用空气能热泵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家用空气能热泵热水器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空调产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SY01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JY6.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JY7.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,33 +263,6 @@
   </si>
   <si>
     <t>KZ10.jpg</t>
-  </si>
-  <si>
-    <t>KT1.jpg</t>
-  </si>
-  <si>
-    <t>KT2.jpg</t>
-  </si>
-  <si>
-    <t>KT3.jpg</t>
-  </si>
-  <si>
-    <t>KT4.jpg</t>
-  </si>
-  <si>
-    <t>KT5.jpg</t>
-  </si>
-  <si>
-    <t>KT6.jpg</t>
-  </si>
-  <si>
-    <t>KT7.jpg</t>
-  </si>
-  <si>
-    <t>KT8.jpg</t>
-  </si>
-  <si>
-    <t>KT9.jpg</t>
   </si>
   <si>
     <t>DQ1.jpg</t>
@@ -1085,18 +1042,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1151,7 +1108,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1457,25 +1414,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1490,241 +1447,241 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>2005</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"',GETDATE(),'"&amp;F2&amp;"',"&amp;B2&amp;");"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ',2005);</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2009</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"',GETDATE(),'"&amp;F3&amp;"',"&amp;B3&amp;");"</f>
+        <f t="shared" ref="I3:I56" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"',GETDATE(),'"&amp;F3&amp;"',"&amp;B3&amp;");"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ',2009);</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>2007</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ',2007);</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>2006</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ',2006);</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>2004</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ',2004);</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>2003</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ',2003);</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>2002</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ',2002);</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>2001</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ',2001);</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>2000</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ',2000);</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>8004</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY',8004);</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>8000</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY',8000);</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B13" s="1">
         <v>8003</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY',8003);</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>8001</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY',8001);</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1732,35 +1689,35 @@
         <v>5076</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY',5076);</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1">
         <v>5078</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY',5078);</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1768,17 +1725,17 @@
         <v>5080</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY',5080);</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1786,17 +1743,17 @@
         <v>5082</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY',5082);</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1804,1218 +1761,1038 @@
         <v>5084</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY',5084);</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>5086</v>
+        <v>5088</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用空气能热泵','','JY6.jpg','',GETDATE(),'JY',5086);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY',5088);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="B21" s="1">
-        <v>5088</v>
+        <v>5090</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY',5090);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5092</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY',5092);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5094</v>
+      </c>
+      <c r="D23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY',5094);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5096</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY',5096);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5098</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY',5098);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY10.jpg','',GETDATE(),'JY',5100);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3082</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ',3082);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3084</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ',3084);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3086</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ',3086);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3088</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ',3088);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3090</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ',3090);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3092</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ',3092);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3094</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ',3094);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3096</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ',3096);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3098</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ',3098);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ',3100);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9388</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY',9388);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9390</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY',9390);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9392</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY',9392);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9378</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY',9378);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9398</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY',9398);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9370</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY',9370);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9374</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY',9374);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9376</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY',9376);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9394</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY',9394);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9396</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY',9396);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9380</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY',9380);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9382</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY',9382);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9384</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY',9384);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9386</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY',9386);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1">
+        <v>9366</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY',9366);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1">
+        <v>9368</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY',9368);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1">
+        <v>9372</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY',9372);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9182</v>
+      </c>
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY',9182);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9186</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY',9186);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="1">
+        <v>9188</v>
+      </c>
+      <c r="D56" t="s">
         <v>162</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY',5088);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY',9188);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9190</v>
+      </c>
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" ref="I57:I76" si="1">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A57&amp;"','"&amp;C57&amp;"','"&amp;D57&amp;"','"&amp;E57&amp;"',GETDATE(),'"&amp;F57&amp;"',"&amp;B57&amp;");"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY',9190);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="1">
+        <v>9192</v>
+      </c>
+      <c r="D58" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="1">
-        <v>5090</v>
-      </c>
-      <c r="D22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY',5090);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5092</v>
-      </c>
-      <c r="D23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY',5092);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5094</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY',9192);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="1">
+        <v>9194</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY',9194);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="1">
+        <v>9150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY',9150);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="1">
+        <v>9152</v>
+      </c>
+      <c r="D61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY',9152);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="1">
+        <v>9154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY',9154);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="1">
+        <v>9156</v>
+      </c>
+      <c r="D63" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY',9156);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="1">
+        <v>9158</v>
+      </c>
+      <c r="D64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY',9158);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="1">
+        <v>9160</v>
+      </c>
+      <c r="D65" t="s">
+        <v>174</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY',9160);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="1">
+        <v>9196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY',9196);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY',9162);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" s="1">
+        <v>9164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY',9164);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9168</v>
+      </c>
+      <c r="D69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY',9168);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="1">
+        <v>9170</v>
+      </c>
+      <c r="D70" t="s">
+        <v>170</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY',9170);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9172</v>
+      </c>
+      <c r="D71" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY',9172);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="1">
+        <v>9174</v>
+      </c>
+      <c r="D72" t="s">
         <v>168</v>
       </c>
-      <c r="F24" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY',5094);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5096</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY',9174);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9176</v>
+      </c>
+      <c r="D73" t="s">
         <v>167</v>
       </c>
-      <c r="F25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY',5096);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5098</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY',9176);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9178</v>
+      </c>
+      <c r="D74" t="s">
         <v>166</v>
       </c>
-      <c r="F26" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY',5098);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5100</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-11.jpg','',GETDATE(),'SY',9178);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9180</v>
+      </c>
+      <c r="D75" t="s">
         <v>165</v>
       </c>
-      <c r="F27" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY10.jpg','',GETDATE(),'JY',5100);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4084</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','KT9.jpg','',GETDATE(),'KT',4084);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4086</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','KT8.jpg','',GETDATE(),'KT',4086);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1">
-        <v>4088</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','KT7.jpg','',GETDATE(),'KT',4088);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1">
-        <v>4090</v>
-      </c>
-      <c r="D31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','KT6.jpg','',GETDATE(),'KT',4090);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4092</v>
-      </c>
-      <c r="D32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','KT5.jpg','',GETDATE(),'KT',4092);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4094</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','KT4.jpg','',GETDATE(),'KT',4094);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4096</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','KT3.jpg','',GETDATE(),'KT',4096);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4098</v>
-      </c>
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','KT2.jpg','',GETDATE(),'KT',4098);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="1">
-        <v>4100</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','KT1.jpg','',GETDATE(),'KT',4100);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3082</v>
-      </c>
-      <c r="D37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ',3082);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3084</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ',3084);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3086</v>
-      </c>
-      <c r="D39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ',3086);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3088</v>
-      </c>
-      <c r="D40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ',3088);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3090</v>
-      </c>
-      <c r="D41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ',3090);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3092</v>
-      </c>
-      <c r="D42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ',3092);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1">
-        <v>3094</v>
-      </c>
-      <c r="D43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ',3094);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3096</v>
-      </c>
-      <c r="D44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ',3096);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="1">
-        <v>3098</v>
-      </c>
-      <c r="D45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ',3098);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="1">
-        <v>3100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ',3100);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1">
-        <v>9388</v>
-      </c>
-      <c r="D47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY',9388);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1">
-        <v>9390</v>
-      </c>
-      <c r="D48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY',9390);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="1">
-        <v>9392</v>
-      </c>
-      <c r="D49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY',9392);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="1">
-        <v>9378</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY',9378);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1">
-        <v>9398</v>
-      </c>
-      <c r="D51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY',9398);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1">
-        <v>9370</v>
-      </c>
-      <c r="D52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY',9370);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="1">
-        <v>9374</v>
-      </c>
-      <c r="D53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY',9374);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="1">
-        <v>9376</v>
-      </c>
-      <c r="D54" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY',9376);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="1">
-        <v>9394</v>
-      </c>
-      <c r="D55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY',9394);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="1">
-        <v>9396</v>
-      </c>
-      <c r="D56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY',9396);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="1">
-        <v>9380</v>
-      </c>
-      <c r="D57" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY',9380);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="1">
-        <v>9382</v>
-      </c>
-      <c r="D58" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY',9382);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="1">
-        <v>9384</v>
-      </c>
-      <c r="D59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY',9384);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="1">
-        <v>9386</v>
-      </c>
-      <c r="D60" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY',9386);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="1">
-        <v>9366</v>
-      </c>
-      <c r="D61" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY',9366);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="1">
-        <v>9368</v>
-      </c>
-      <c r="D62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY',9368);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="1">
-        <v>9372</v>
-      </c>
-      <c r="D63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY',9372);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" s="1">
-        <v>9182</v>
-      </c>
-      <c r="D64" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY',9182);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" s="1">
-        <v>9186</v>
-      </c>
-      <c r="D65" t="s">
-        <v>176</v>
-      </c>
-      <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY',9186);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="1">
-        <v>9188</v>
-      </c>
-      <c r="D66" t="s">
-        <v>175</v>
-      </c>
-      <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY',9188);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" s="1">
-        <v>9190</v>
-      </c>
-      <c r="D67" t="s">
-        <v>174</v>
-      </c>
-      <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" ref="I67:I86" si="1">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"','"&amp;E67&amp;"',GETDATE(),'"&amp;F67&amp;"',"&amp;B67&amp;");"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY',9190);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="1">
-        <v>9192</v>
-      </c>
-      <c r="D68" t="s">
-        <v>173</v>
-      </c>
-      <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY',9192);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="1">
-        <v>9194</v>
-      </c>
-      <c r="D69" t="s">
-        <v>172</v>
-      </c>
-      <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY',9194);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" s="1">
-        <v>9150</v>
-      </c>
-      <c r="D70" t="s">
-        <v>192</v>
-      </c>
-      <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY',9150);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71" s="1">
-        <v>9152</v>
-      </c>
-      <c r="D71" t="s">
-        <v>191</v>
-      </c>
-      <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY',9152);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" s="1">
-        <v>9154</v>
-      </c>
-      <c r="D72" t="s">
-        <v>190</v>
-      </c>
-      <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY',9154);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" s="1">
-        <v>9156</v>
-      </c>
-      <c r="D73" t="s">
-        <v>189</v>
-      </c>
-      <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY',9156);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" s="1">
-        <v>9158</v>
-      </c>
-      <c r="D74" t="s">
-        <v>188</v>
-      </c>
-      <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY',9158);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="1">
-        <v>9160</v>
-      </c>
-      <c r="D75" t="s">
-        <v>187</v>
-      </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY',9160);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY',9180);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B76" s="1">
-        <v>9196</v>
+        <v>9198</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY',9196);</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="1">
-        <v>9162</v>
-      </c>
-      <c r="D77" t="s">
-        <v>186</v>
-      </c>
-      <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY',9162);</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="1">
-        <v>9164</v>
-      </c>
-      <c r="D78" t="s">
-        <v>185</v>
-      </c>
-      <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY',9164);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" s="1">
-        <v>9168</v>
-      </c>
-      <c r="D79" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY',9168);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" s="1">
-        <v>9170</v>
-      </c>
-      <c r="D80" t="s">
-        <v>183</v>
-      </c>
-      <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY',9170);</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" s="1">
-        <v>9172</v>
-      </c>
-      <c r="D81" t="s">
-        <v>182</v>
-      </c>
-      <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY',9172);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="1">
-        <v>9174</v>
-      </c>
-      <c r="D82" t="s">
-        <v>181</v>
-      </c>
-      <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY',9174);</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="1">
-        <v>9176</v>
-      </c>
-      <c r="D83" t="s">
-        <v>180</v>
-      </c>
-      <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY',9176);</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="1">
-        <v>9178</v>
-      </c>
-      <c r="D84" t="s">
-        <v>179</v>
-      </c>
-      <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-11.jpg','',GETDATE(),'SY',9178);</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B85" s="1">
-        <v>9180</v>
-      </c>
-      <c r="D85" t="s">
-        <v>178</v>
-      </c>
-      <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY',9180);</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="1">
-        <v>9198</v>
-      </c>
-      <c r="D86" t="s">
-        <v>170</v>
-      </c>
-      <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-1.jpg','',GETDATE(),'SY',9198);</v>
       </c>
@@ -3028,19 +2805,19 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A56" r:id="rId1" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_26.html"/>
-    <hyperlink ref="A55" r:id="rId2" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_27.html"/>
-    <hyperlink ref="A54" r:id="rId3" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_28.html"/>
-    <hyperlink ref="A53" r:id="rId4" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_29.html"/>
-    <hyperlink ref="A49" r:id="rId5" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_30.html"/>
-    <hyperlink ref="A48" r:id="rId6" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_31.html"/>
-    <hyperlink ref="A47" r:id="rId7" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_32.html"/>
-    <hyperlink ref="A60" r:id="rId8" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
-    <hyperlink ref="A59" r:id="rId9" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
+    <hyperlink ref="A46" r:id="rId1" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_26.html"/>
+    <hyperlink ref="A45" r:id="rId2" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_27.html"/>
+    <hyperlink ref="A44" r:id="rId3" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_28.html"/>
+    <hyperlink ref="A43" r:id="rId4" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_29.html"/>
+    <hyperlink ref="A39" r:id="rId5" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_30.html"/>
+    <hyperlink ref="A38" r:id="rId6" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_31.html"/>
+    <hyperlink ref="A37" r:id="rId7" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_32.html"/>
+    <hyperlink ref="A50" r:id="rId8" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
+    <hyperlink ref="A49" r:id="rId9" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
     <hyperlink ref="A15" r:id="rId10" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
-    <hyperlink ref="A63" r:id="rId11" tooltip="水箱" display="http://szlonggan.com/productshow_12_75.html"/>
-    <hyperlink ref="A62" r:id="rId12" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
-    <hyperlink ref="A61" r:id="rId13" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
+    <hyperlink ref="A53" r:id="rId11" tooltip="水箱" display="http://szlonggan.com/productshow_12_75.html"/>
+    <hyperlink ref="A52" r:id="rId12" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
+    <hyperlink ref="A51" r:id="rId13" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId14"/>
@@ -3051,37 +2828,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>9000</v>
@@ -3091,12 +2868,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ01.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>9000</v>
@@ -3106,12 +2883,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ02.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>9000</v>
@@ -3121,12 +2898,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ03.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>9000</v>
@@ -3136,12 +2913,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ04.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>9000</v>
@@ -3151,12 +2928,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ05.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>9000</v>
@@ -3166,12 +2943,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ06.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>9000</v>
@@ -3181,12 +2958,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ07.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>9000</v>
@@ -3196,12 +2973,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ08.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>9000</v>
@@ -3211,12 +2988,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ09.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <v>9000</v>
@@ -3226,12 +3003,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ10.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>9000</v>
@@ -3241,12 +3018,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ11.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>9000</v>
@@ -3256,12 +3033,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ12.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>9000</v>
@@ -3271,12 +3048,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ13.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>9000</v>
@@ -3286,12 +3063,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ14.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>9000</v>
@@ -3301,12 +3078,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ15.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>9000</v>
@@ -3316,12 +3093,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ16.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D18">
         <v>9000</v>
@@ -3331,12 +3108,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ17.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D19">
         <v>9000</v>
@@ -3346,12 +3123,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ18.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <v>9000</v>
@@ -3361,12 +3138,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ19.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D21">
         <v>9000</v>
@@ -3376,12 +3153,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'尚客优20吨热水','','AZ20.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <v>9000</v>
@@ -3391,12 +3168,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ21.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D23">
         <v>9000</v>
@@ -3406,12 +3183,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ22.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D24">
         <v>9000</v>
@@ -3421,12 +3198,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ23.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <v>9000</v>
@@ -3436,12 +3213,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ24.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>9000</v>
@@ -3451,12 +3228,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ25.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D27">
         <v>9000</v>
@@ -3466,12 +3243,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ26.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D28">
         <v>9000</v>
@@ -3481,12 +3258,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ27.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>9000</v>
@@ -3496,12 +3273,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ28.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D30">
         <v>9079</v>
@@ -3511,12 +3288,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'南京四五四解放军医院','','AZ29.jpg',GETDATE(),9079);</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D31">
         <v>9080</v>
@@ -3526,12 +3303,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'南京四五四解放军医院','','AZ30.jpg',GETDATE(),9080);</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D32">
         <v>9081</v>
@@ -3541,12 +3318,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'南京四五四解放军医院','','AZ31.jpg',GETDATE(),9081);</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D33">
         <v>9082</v>
@@ -3556,12 +3333,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'南京四五四解放军医院','','AZ32.jpg',GETDATE(),9082);</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D34">
         <v>9077</v>
@@ -3571,12 +3348,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州农业大学热水工程','','AZ33.jpg',GETDATE(),9077);</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D35">
         <v>9078</v>
@@ -3586,12 +3363,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州农业大学热水工程','','AZ34.jpg',GETDATE(),9078);</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D36">
         <v>9075</v>
@@ -3601,12 +3378,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ35.jpg',GETDATE(),9075);</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D37">
         <v>9076</v>
@@ -3616,12 +3393,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ36.jpg',GETDATE(),9076);</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D38">
         <v>9073</v>
@@ -3631,12 +3408,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ37.jpg',GETDATE(),9073);</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D39">
         <v>9074</v>
@@ -3646,12 +3423,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ38.jpg',GETDATE(),9074);</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D40">
         <v>8027</v>
@@ -3661,12 +3438,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'别墅地源热泵','','AZ39.jpg',GETDATE(),8027);</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D41">
         <v>8028</v>
@@ -3676,12 +3453,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'别墅地源热泵','','AZ40.jpg',GETDATE(),8028);</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D42">
         <v>8029</v>
@@ -3691,12 +3468,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'别墅地暖','','AZ41.jpg',GETDATE(),8029);</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D43">
         <v>8030</v>
@@ -3706,12 +3483,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'别墅地源热泵','','AZ42.jpg',GETDATE(),8030);</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D44">
         <v>9065</v>
@@ -3721,12 +3498,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ43.jpg',GETDATE(),9065);</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D45">
         <v>9066</v>
@@ -3736,12 +3513,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ44.jpg',GETDATE(),9066);</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D46">
         <v>9067</v>
@@ -3751,12 +3528,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ45.jpg',GETDATE(),9067);</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D47">
         <v>9068</v>
@@ -3766,12 +3543,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ46.jpg',GETDATE(),9068);</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D48">
         <v>9069</v>
@@ -3781,12 +3558,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ47.jpg',GETDATE(),9069);</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D49">
         <v>9070</v>
@@ -3796,12 +3573,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ48.jpg',GETDATE(),9070);</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D50">
         <v>9071</v>
@@ -3811,12 +3588,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ49.jpg',GETDATE(),9071);</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D51">
         <v>9072</v>
@@ -3826,12 +3603,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ50.jpg',GETDATE(),9072);</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D52">
         <v>9061</v>
@@ -3841,12 +3618,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ51.jpg',GETDATE(),9061);</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D53">
         <v>9062</v>
@@ -3856,12 +3633,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ52.jpg',GETDATE(),9062);</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D54">
         <v>9063</v>
@@ -3871,12 +3648,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ53.jpg',GETDATE(),9063);</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D55">
         <v>9064</v>
@@ -3886,12 +3663,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ54.jpg',GETDATE(),9064);</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D56">
         <v>9057</v>
@@ -3901,12 +3678,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ55.jpg',GETDATE(),9057);</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D57">
         <v>9058</v>
@@ -3916,12 +3693,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ56.jpg',GETDATE(),9058);</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D58">
         <v>9059</v>
@@ -3931,12 +3708,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ57.jpg',GETDATE(),9059);</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D59">
         <v>9060</v>
@@ -3946,12 +3723,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ58.jpg',GETDATE(),9060);</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D60">
         <v>8023</v>
@@ -3961,12 +3738,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ59.jpg',GETDATE(),8023);</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D61">
         <v>8024</v>
@@ -3976,12 +3753,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ60.jpg',GETDATE(),8024);</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D62">
         <v>8025</v>
@@ -3991,12 +3768,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ61.jpg',GETDATE(),8025);</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D63">
         <v>8026</v>
@@ -4006,12 +3783,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ62.jpg',GETDATE(),8026);</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D64">
         <v>9057</v>
@@ -4021,12 +3798,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'浒关浴场','','AZ63.jpg',GETDATE(),9057);</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D65">
         <v>9058</v>
@@ -4036,12 +3813,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'浒关浴场','','AZ64.jpg',GETDATE(),9058);</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D66">
         <v>9059</v>
@@ -4051,12 +3828,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'浒关浴场','','AZ65.jpg',GETDATE(),9059);</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D67">
         <v>9060</v>
@@ -4066,12 +3843,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'浒关浴场','','AZ66.jpg',GETDATE(),9060);</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D68">
         <v>9043</v>
@@ -4081,12 +3858,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ67.jpg',GETDATE(),9043);</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D69">
         <v>9044</v>
@@ -4096,12 +3873,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ68.jpg',GETDATE(),9044);</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D70">
         <v>9045</v>
@@ -4111,12 +3888,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ69.jpg',GETDATE(),9045);</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D71">
         <v>9046</v>
@@ -4126,12 +3903,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ70.jpg',GETDATE(),9046);</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D72">
         <v>9047</v>
@@ -4141,12 +3918,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ71.jpg',GETDATE(),9047);</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D73">
         <v>9048</v>
@@ -4156,12 +3933,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ72.jpg',GETDATE(),9048);</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D74">
         <v>9049</v>
@@ -4171,12 +3948,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ73.jpg',GETDATE(),9049);</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D75">
         <v>9050</v>
@@ -4186,12 +3963,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ74.jpg',GETDATE(),9050);</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D76">
         <v>9051</v>
@@ -4201,12 +3978,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ75.jpg',GETDATE(),9051);</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D77">
         <v>9052</v>
@@ -4216,12 +3993,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ76.jpg',GETDATE(),9052);</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C78" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D78">
         <v>9053</v>
@@ -4231,12 +4008,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ77.jpg',GETDATE(),9053);</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D79">
         <v>9054</v>
@@ -4246,12 +4023,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ78.jpg',GETDATE(),9054);</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D80">
         <v>9055</v>
@@ -4261,12 +4038,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ79.jpg',GETDATE(),9055);</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D81">
         <v>9056</v>
@@ -4276,12 +4053,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ80.jpg',GETDATE(),9056);</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D82">
         <v>9036</v>
@@ -4291,12 +4068,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ81.jpg',GETDATE(),9036);</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D83">
         <v>9037</v>
@@ -4306,12 +4083,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ82.jpg',GETDATE(),9037);</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C84" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D84">
         <v>9038</v>
@@ -4321,12 +4098,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ83.jpg',GETDATE(),9038);</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D85">
         <v>9039</v>
@@ -4336,12 +4113,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ84.jpg',GETDATE(),9039);</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D86">
         <v>9040</v>
@@ -4351,12 +4128,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ85.jpg',GETDATE(),9040);</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D87">
         <v>9041</v>
@@ -4366,12 +4143,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ86.jpg',GETDATE(),9041);</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D88">
         <v>9042</v>
@@ -4381,12 +4158,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ87.jpg',GETDATE(),9042);</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D89">
         <v>9033</v>
@@ -4396,12 +4173,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间','','AZ88.jpg',GETDATE(),9033);</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D90">
         <v>9034</v>
@@ -4411,12 +4188,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间','','AZ89.jpg',GETDATE(),9034);</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D91">
         <v>9035</v>
@@ -4426,12 +4203,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间','','AZ90.jpg',GETDATE(),9035);</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D92">
         <v>9028</v>
@@ -4441,12 +4218,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ91.jpg',GETDATE(),9028);</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D93">
         <v>9029</v>
@@ -4456,12 +4233,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ92.jpg',GETDATE(),9029);</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D94">
         <v>9030</v>
@@ -4471,12 +4248,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ93.jpg',GETDATE(),9030);</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D95">
         <v>9031</v>
@@ -4486,12 +4263,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ94.jpg',GETDATE(),9031);</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D96">
         <v>9032</v>
@@ -4501,12 +4278,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ95.jpg',GETDATE(),9032);</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C97" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D97">
         <v>9025</v>
@@ -4516,12 +4293,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路宾馆空气源热泵水箱吊装','','AZ96.jpg',GETDATE(),9025);</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C98" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D98">
         <v>9026</v>
@@ -4531,12 +4308,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路宾馆空气源热泵水箱吊装','','AZ97.jpg',GETDATE(),9026);</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C99" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D99">
         <v>9027</v>
@@ -4546,12 +4323,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路宾馆空气源热泵水箱吊装','','AZ98.jpg',GETDATE(),9027);</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D100">
         <v>9015</v>
@@ -4561,12 +4338,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ99.jpg',GETDATE(),9015);</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C101" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D101">
         <v>9016</v>
@@ -4576,12 +4353,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ100.jpg',GETDATE(),9016);</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C102" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D102">
         <v>9017</v>
@@ -4591,12 +4368,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ101.jpg',GETDATE(),9017);</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C103" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D103">
         <v>9018</v>
@@ -4606,12 +4383,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ102.jpg',GETDATE(),9018);</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C104" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D104">
         <v>9019</v>
@@ -4621,12 +4398,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ103.jpg',GETDATE(),9019);</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D105">
         <v>9020</v>
@@ -4636,12 +4413,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ104.jpg',GETDATE(),9020);</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D106">
         <v>9021</v>
@@ -4651,12 +4428,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ105.jpg',GETDATE(),9021);</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C107" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D107">
         <v>9022</v>
@@ -4666,12 +4443,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ106.jpg',GETDATE(),9022);</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D108">
         <v>9023</v>
@@ -4681,12 +4458,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ107.jpg',GETDATE(),9023);</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C109" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D109">
         <v>9011</v>
@@ -4696,12 +4473,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ108.jpg',GETDATE(),9011);</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D110">
         <v>9012</v>
@@ -4711,12 +4488,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ109.jpg',GETDATE(),9012);</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D111">
         <v>9013</v>
@@ -4726,12 +4503,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ110.jpg',GETDATE(),9013);</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C112" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D112">
         <v>9014</v>
@@ -4741,12 +4518,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ111.jpg',GETDATE(),9014);</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D113">
         <v>8005</v>
@@ -4756,12 +4533,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ112.jpg',GETDATE(),8005);</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C114" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D114">
         <v>8006</v>
@@ -4771,12 +4548,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ113.jpg',GETDATE(),8006);</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C115" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D115">
         <v>8007</v>
@@ -4786,12 +4563,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ114.jpg',GETDATE(),8007);</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C116" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D116">
         <v>8008</v>
@@ -4801,12 +4578,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ115.jpg',GETDATE(),8008);</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C117" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D117">
         <v>8009</v>
@@ -4816,12 +4593,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ116.jpg',GETDATE(),8009);</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C118" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D118">
         <v>8010</v>
@@ -4831,12 +4608,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ117.jpg',GETDATE(),8010);</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C119" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D119">
         <v>8011</v>
@@ -4846,12 +4623,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ118.jpg',GETDATE(),8011);</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C120" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D120">
         <v>8012</v>
@@ -4861,12 +4638,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ119.jpg',GETDATE(),8012);</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C121" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D121">
         <v>8013</v>
@@ -4876,12 +4653,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ120.jpg',GETDATE(),8013);</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C122" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D122">
         <v>8014</v>
@@ -4891,12 +4668,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ121.jpg',GETDATE(),8014);</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C123" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D123">
         <v>8015</v>
@@ -4906,12 +4683,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ122.jpg',GETDATE(),8015);</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C124" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D124">
         <v>8016</v>
@@ -4921,12 +4698,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ123.jpg',GETDATE(),8016);</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D125">
         <v>8017</v>
@@ -4936,12 +4713,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ124.jpg',GETDATE(),8017);</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D126">
         <v>8018</v>
@@ -4951,12 +4728,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ125.jpg',GETDATE(),8018);</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C127" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D127">
         <v>8019</v>
@@ -4966,12 +4743,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ126.jpg',GETDATE(),8019);</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C128" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D128">
         <v>8020</v>
@@ -4981,12 +4758,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ127.jpg',GETDATE(),8020);</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C129" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D129">
         <v>8021</v>
@@ -4996,12 +4773,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ128.jpg',GETDATE(),8021);</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C130" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D130">
         <v>8005</v>
@@ -5011,12 +4788,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州第三中学空气源热泵热水','','AZ129.jpg',GETDATE(),8005);</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C131" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D131">
         <v>8006</v>
@@ -5026,12 +4803,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州第三中学空气源热泵热水','','AZ130.jpg',GETDATE(),8006);</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C132" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D132">
         <v>9011</v>
@@ -5041,12 +4818,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'西山缥缈峰空气源热泵热水','','AZ131.jpg',GETDATE(),9011);</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C133" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D133">
         <v>9010</v>
@@ -5056,12 +4833,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'西山缥缈峰空气源热泵热水','','AZ132.jpg',GETDATE(),9010);</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C134" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D134">
         <v>8000</v>
@@ -5071,12 +4848,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ133.jpg',GETDATE(),8000);</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C135" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D135">
         <v>8001</v>
@@ -5086,12 +4863,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ134.jpg',GETDATE(),8001);</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C136" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D136">
         <v>8002</v>
@@ -5101,12 +4878,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ135.jpg',GETDATE(),8002);</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C137" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D137">
         <v>8003</v>
@@ -5116,12 +4893,12 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ136.jpg',GETDATE(),8003);</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C138" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D138">
         <v>8004</v>
@@ -5146,32 +4923,32 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5">
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="G2" t="str">
         <f>"INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'"&amp;A2&amp;"','"&amp;B2&amp;"',0,'"&amp;C2&amp;"');"</f>
@@ -5183,15 +4960,15 @@
     天气转暖，用电高峰，较之使用传统热水器耗费电量，空气能热水器的优势已然相当明显。在即将到来的高温潮中，又是新的销售高峰。',0,'2015-06-01');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5">
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G7" si="0">"INSERT INTO [Longgan].[dbo].[New] ([Id],[Title],[Content],[Hot],[Created])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;B3&amp;"',0,'"&amp;C3&amp;"');"</f>
@@ -5204,15 +4981,15 @@
     空气能热水器于2002年进入国内市场开始参与到热水器行业的市场竞争当中，经过十余年的发展，不管是产品质量的稳定性、产品性能的可靠性、技术的创新性，还是其市场认知度，空气能热水器都有了很大的提升。据相关部门统计，2013年，我国空气能热水器市场规模达到95亿元，同比2012年增长41.83%。其中工程机市场为50亿元，占53%，家用机市场为45亿元，占47%。',0,'2015-05-02');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.5">
+    <row r="4" spans="1:7" ht="405" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -5222,15 +4999,15 @@
     媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。',0,'2015-04-03');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5">
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -5241,15 +5018,15 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，同时，多种节能技术广泛深入的整合运用必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-03-04');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5">
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -5265,15 +5042,15 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-02-05');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5">
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>

--- a/Longgan/Longgan.Web/App_Data/longgan.xlsx
+++ b/Longgan/Longgan.Web/App_Data/longgan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="311">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,23 +1037,77 @@
   <si>
     <t>title</t>
   </si>
+  <si>
+    <t>DY</t>
+  </si>
+  <si>
+    <t>shuire1.jpg</t>
+  </si>
+  <si>
+    <t>shuire2.jpg</t>
+  </si>
+  <si>
+    <t>shuire3.jpg</t>
+  </si>
+  <si>
+    <t>shuire4.jpg</t>
+  </si>
+  <si>
+    <t>shuire5.jpg</t>
+  </si>
+  <si>
+    <t>SY19.jpg</t>
+  </si>
+  <si>
+    <t>SY20.jpg</t>
+  </si>
+  <si>
+    <t>SY21.jpg</t>
+  </si>
+  <si>
+    <t>SY22.jpg</t>
+  </si>
+  <si>
+    <t>SY23.jpg</t>
+  </si>
+  <si>
+    <t>SY24.jpg</t>
+  </si>
+  <si>
+    <t>SY25.jpg</t>
+  </si>
+  <si>
+    <t>SY26.jpg</t>
+  </si>
+  <si>
+    <t>SY27.jpg</t>
+  </si>
+  <si>
+    <t>SY28.jpg</t>
+  </si>
+  <si>
+    <t>SY29.jpg</t>
+  </si>
+  <si>
+    <t>空气能</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1414,20 +1468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82:B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>292</v>
       </c>
@@ -1447,7 +1501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1465,7 +1519,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'ABB原装进口变频器','','DQ6.jpg','',GETDATE(),'DQ',2005);</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1479,11 +1533,11 @@
         <v>25</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I56" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"',GETDATE(),'"&amp;F3&amp;"',"&amp;B3&amp;");"</f>
+        <f t="shared" ref="I3:I61" si="0">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"',GETDATE(),'"&amp;F3&amp;"',"&amp;B3&amp;");"</f>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'不锈钢无负压变频供水设备','','DQ9.jpg','',GETDATE(),'DQ',2009);</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +1555,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ8.jpg','',GETDATE(),'DQ',2007);</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1519,7 +1573,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ7.jpg','',GETDATE(),'DQ',2006);</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1537,7 +1591,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ5.jpg','',GETDATE(),'DQ',2004);</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1555,7 +1609,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ4.jpg','',GETDATE(),'DQ',2003);</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1627,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ3.jpg','',GETDATE(),'DQ',2002);</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1591,7 +1645,7 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ2.jpg','',GETDATE(),'DQ',2001);</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1609,1192 +1663,1480 @@
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'电器元件','','DQ1.jpg','',GETDATE(),'DQ',2000);</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8010</v>
+      </c>
+      <c r="D11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','shuire1.jpg','',GETDATE(),'DY',8010);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8009</v>
+      </c>
+      <c r="D12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','shuire2.jpg','',GETDATE(),'DY',8009);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8008</v>
+      </c>
+      <c r="D13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','shuire3.jpg','',GETDATE(),'DY',8008);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8007</v>
+      </c>
+      <c r="D14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','shuire4.jpg','',GETDATE(),'DY',8007);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8006</v>
+      </c>
+      <c r="D15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','shuire5.jpg','',GETDATE(),'DY',8006);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B16" s="1">
         <v>8004</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYDS水（地）源热泵机组','','DY1.jpg','',GETDATE(),'DY',8004);</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B17" s="1">
         <v>8000</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'别墅地源热泵','','DY4.jpg','',GETDATE(),'DY',8000);</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B18" s="1">
         <v>8003</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'地源热泵','','DY3.jpg','',GETDATE(),'DY',8003);</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B19" s="1">
         <v>8001</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D19" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F19" t="s">
         <v>22</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'地源热泵','','DY2.jpg','',GETDATE(),'DY',8001);</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B20" s="1">
         <v>5076</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB30-62A家用和谐系列热泵热水器','','JY1.jpg','',GETDATE(),'JY',5076);</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B21" s="1">
         <v>5078</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用型热泵','','JY5.jpg','',GETDATE(),'JY',5078);</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B22" s="1">
         <v>5080</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I22" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用型热泵','','JY4.jpg','',GETDATE(),'JY',5080);</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B23" s="1">
         <v>5082</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用型热泵','','JY3.jpg','',GETDATE(),'JY',5082);</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B24" s="1">
         <v>5084</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F24" t="s">
         <v>20</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用型热泵','','JY2.jpg','',GETDATE(),'JY',5084);</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B25" s="1">
         <v>5088</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY',5088);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5090</v>
-      </c>
-      <c r="D21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY',5090);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5092</v>
-      </c>
-      <c r="D22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY',5092);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5094</v>
-      </c>
-      <c r="D23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY',5094);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5096</v>
-      </c>
-      <c r="D24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY',5096);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5098</v>
-      </c>
-      <c r="D25" t="s">
-        <v>153</v>
       </c>
       <c r="F25" t="s">
         <v>149</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY',5098);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'家用空气能热泵热水器','','JY7.jpg','',GETDATE(),'JY',5088);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B26" s="1">
-        <v>5100</v>
+        <v>5090</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY9.jpg','',GETDATE(),'JY',5090);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5092</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY8.jpg','',GETDATE(),'JY',5092);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5094</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY13.jpg','',GETDATE(),'JY',5094);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5096</v>
+      </c>
+      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY12.jpg','',GETDATE(),'JY',5096);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5098</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY11.jpg','',GETDATE(),'JY',5098);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空调产品','','JY10.jpg','',GETDATE(),'JY',5100);</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3082</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ',3082);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3084</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ',3084);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3086</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ',3086);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3088</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ',3088);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3090</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ',3090);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>3092</v>
+        <v>3082</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ',3092);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ10.jpg','',GETDATE(),'KZ',3082);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="1">
-        <v>3094</v>
+        <v>3084</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ',3094);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ09.jpg','',GETDATE(),'KZ',3084);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="1">
-        <v>3096</v>
+        <v>3086</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>24</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ',3096);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ08.jpg','',GETDATE(),'KZ',3086);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="1">
-        <v>3098</v>
+        <v>3088</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ',3098);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ07.jpg','',GETDATE(),'KZ',3088);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="1">
-        <v>3100</v>
+        <v>3090</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ06.jpg','',GETDATE(),'KZ',3090);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3092</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ05.jpg','',GETDATE(),'KZ',3092);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3094</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ04.jpg','',GETDATE(),'KZ',3094);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3096</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ03.jpg','',GETDATE(),'KZ',3096);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3098</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ02.jpg','',GETDATE(),'KZ',3098);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'控制系统','','KZ01.jpg','',GETDATE(),'KZ',3100);</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B42" s="1">
         <v>9388</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D42" t="s">
         <v>35</v>
-      </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY',9388);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1">
-        <v>9390</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY',9390);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1">
-        <v>9392</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY',9392);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1">
-        <v>9378</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY',9378);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1">
-        <v>9398</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY',9398);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1">
-        <v>9370</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY',9370);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY06.jpg','',GETDATE(),'SY',9388);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>9374</v>
+        <v>9390</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY',9374);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY05.jpg','',GETDATE(),'SY',9390);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1">
-        <v>9376</v>
+        <v>9392</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY',9376);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-A系列热泵热水机组','','SY04.jpg','',GETDATE(),'SY',9392);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1">
-        <v>9394</v>
+        <v>9378</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY',9394);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY11.jpg','',GETDATE(),'SY',9378);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>9396</v>
+        <v>9398</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY',9396);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-B系列热泵热水机组','','SY01.jpg','',GETDATE(),'SY',9398);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
-        <v>9380</v>
+        <v>9370</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY',9380);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB-C系列热泵热水机组','','SY15.jpg','',GETDATE(),'SY',9370);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1">
-        <v>9382</v>
+        <v>9374</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY',9382);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY13.jpg','',GETDATE(),'SY',9374);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>9384</v>
+        <v>9376</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY',9384);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY12.jpg','',GETDATE(),'SY',9376);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
-        <v>9386</v>
+        <v>9394</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY',9386);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY03.jpg','',GETDATE(),'SY',9394);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1">
-        <v>9366</v>
+        <v>9396</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY',9366);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'SYRB和谐系列热泵热水机组','','SY02.jpg','',GETDATE(),'SY',9396);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1">
-        <v>9368</v>
+        <v>9380</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY',9368);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY10.jpg','',GETDATE(),'SY',9380);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1">
-        <v>9372</v>
+        <v>9382</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY',9372);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY09.jpg','',GETDATE(),'SY',9382);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
-        <v>9182</v>
+        <v>9384</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY',9182);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY08.jpg','',GETDATE(),'SY',9384);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
-        <v>9186</v>
+        <v>9386</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY',9186);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'商用型热泵','','SY07.jpg','',GETDATE(),'SY',9386);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1">
-        <v>9188</v>
+        <v>9366</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY',9188);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'太阳能集中供热','','SY17.jpg','',GETDATE(),'SY',9366);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
-        <v>9190</v>
+        <v>9368</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" ref="I57:I76" si="1">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A57&amp;"','"&amp;C57&amp;"','"&amp;D57&amp;"','"&amp;E57&amp;"',GETDATE(),'"&amp;F57&amp;"',"&amp;B57&amp;");"</f>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY',9190);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'太阳能集中供热','','SY16.jpg','',GETDATE(),'SY',9368);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1">
-        <v>9192</v>
+        <v>9372</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY',9192);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'水箱','','SY14.jpg','',GETDATE(),'SY',9372);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B59" s="1">
-        <v>9194</v>
+        <v>9182</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY',9194);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-9.jpg','',GETDATE(),'SY',9182);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B60" s="1">
-        <v>9150</v>
+        <v>9186</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY',9150);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-7.jpg','',GETDATE(),'SY',9186);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B61" s="1">
-        <v>9152</v>
+        <v>9188</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY',9152);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-6.jpg','',GETDATE(),'SY',9188);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B62" s="1">
-        <v>9154</v>
+        <v>9190</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY',9154);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I62:I92" si="1">"INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'"&amp;A62&amp;"','"&amp;C62&amp;"','"&amp;D62&amp;"','"&amp;E62&amp;"',GETDATE(),'"&amp;F62&amp;"',"&amp;B62&amp;");"</f>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-5.jpg','',GETDATE(),'SY',9190);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B63" s="1">
-        <v>9156</v>
+        <v>9192</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY',9156);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-4.jpg','',GETDATE(),'SY',9192);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B64" s="1">
-        <v>9158</v>
+        <v>9194</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY',9158);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-3.jpg','',GETDATE(),'SY',9194);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B65" s="1">
-        <v>9160</v>
+        <v>9150</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY',9160);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-25.jpg','',GETDATE(),'SY',9150);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B66" s="1">
-        <v>9196</v>
+        <v>9152</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY',9196);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-24.jpg','',GETDATE(),'SY',9152);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B67" s="1">
-        <v>9162</v>
+        <v>9154</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY',9162);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-23.jpg','',GETDATE(),'SY',9154);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B68" s="1">
-        <v>9164</v>
+        <v>9156</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY',9164);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-22.jpg','',GETDATE(),'SY',9156);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B69" s="1">
-        <v>9168</v>
+        <v>9158</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY',9168);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-21.jpg','',GETDATE(),'SY',9158);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B70" s="1">
-        <v>9170</v>
+        <v>9160</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY',9170);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-20.jpg','',GETDATE(),'SY',9160);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B71" s="1">
-        <v>9172</v>
+        <v>9196</v>
       </c>
       <c r="D71" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY',9172);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-2.jpg','',GETDATE(),'SY',9196);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B72" s="1">
-        <v>9174</v>
+        <v>9162</v>
       </c>
       <c r="D72" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY',9174);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-19.jpg','',GETDATE(),'SY',9162);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B73" s="1">
-        <v>9176</v>
+        <v>9164</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY',9176);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-18.jpg','',GETDATE(),'SY',9164);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B74" s="1">
-        <v>9178</v>
+        <v>9168</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-11.jpg','',GETDATE(),'SY',9178);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-16.jpg','',GETDATE(),'SY',9168);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B75" s="1">
-        <v>9180</v>
+        <v>9170</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY',9180);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-15.jpg','',GETDATE(),'SY',9170);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B76" s="1">
-        <v>9198</v>
+        <v>9172</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-14.jpg','',GETDATE(),'SY',9172);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9174</v>
+      </c>
+      <c r="D77" t="s">
+        <v>168</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-13.jpg','',GETDATE(),'SY',9174);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9176</v>
+      </c>
+      <c r="D78" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-12.jpg','',GETDATE(),'SY',9176);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9178</v>
+      </c>
+      <c r="D79" t="s">
+        <v>166</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-11.jpg','',GETDATE(),'SY',9178);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="1">
+        <v>9180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-10.jpg','',GETDATE(),'SY',9180);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9198</v>
+      </c>
+      <c r="D81" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'申银集团','','SY-1.jpg','',GETDATE(),'SY',9198);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>299</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY19.jpg','',GETDATE(),'SY',9000);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="1">
+        <v>9001</v>
+      </c>
+      <c r="D83" t="s">
+        <v>300</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY20.jpg','',GETDATE(),'SY',9001);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9002</v>
+      </c>
+      <c r="D84" t="s">
+        <v>301</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY21.jpg','',GETDATE(),'SY',9002);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85" s="1">
+        <v>9003</v>
+      </c>
+      <c r="D85" t="s">
+        <v>302</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY22.jpg','',GETDATE(),'SY',9003);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B86" s="1">
+        <v>9004</v>
+      </c>
+      <c r="D86" t="s">
+        <v>303</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY23.jpg','',GETDATE(),'SY',9004);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B87" s="1">
+        <v>9005</v>
+      </c>
+      <c r="D87" t="s">
+        <v>304</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY24.jpg','',GETDATE(),'SY',9005);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9006</v>
+      </c>
+      <c r="D88" t="s">
+        <v>305</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY25.jpg','',GETDATE(),'SY',9006);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" s="1">
+        <v>9007</v>
+      </c>
+      <c r="D89" t="s">
+        <v>306</v>
+      </c>
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY26.jpg','',GETDATE(),'SY',9007);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9008</v>
+      </c>
+      <c r="D90" t="s">
+        <v>307</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY27.jpg','',GETDATE(),'SY',9008);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B91" s="1">
+        <v>9009</v>
+      </c>
+      <c r="D91" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY28.jpg','',GETDATE(),'SY',9009);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92" s="1">
+        <v>9010</v>
+      </c>
+      <c r="D92" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO [Longgan].[dbo].[Product] ([Id],[Title],[Content],[PicName],[IntroName],[Created],[Type],[PriorityNum])VALUES (NEWID(),'空气能','','SY29.jpg','',GETDATE(),'SY',9010);</v>
       </c>
     </row>
   </sheetData>
@@ -2805,19 +3147,19 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_26.html"/>
-    <hyperlink ref="A45" r:id="rId2" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_27.html"/>
-    <hyperlink ref="A44" r:id="rId3" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_28.html"/>
-    <hyperlink ref="A43" r:id="rId4" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_29.html"/>
-    <hyperlink ref="A39" r:id="rId5" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_30.html"/>
-    <hyperlink ref="A38" r:id="rId6" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_31.html"/>
-    <hyperlink ref="A37" r:id="rId7" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_32.html"/>
-    <hyperlink ref="A50" r:id="rId8" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
-    <hyperlink ref="A49" r:id="rId9" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
-    <hyperlink ref="A15" r:id="rId10" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
-    <hyperlink ref="A53" r:id="rId11" tooltip="水箱" display="http://szlonggan.com/productshow_12_75.html"/>
-    <hyperlink ref="A52" r:id="rId12" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
-    <hyperlink ref="A51" r:id="rId13" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
+    <hyperlink ref="A51" r:id="rId1" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_26.html"/>
+    <hyperlink ref="A50" r:id="rId2" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_27.html"/>
+    <hyperlink ref="A49" r:id="rId3" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_28.html"/>
+    <hyperlink ref="A48" r:id="rId4" tooltip="SYRB和谐系列热泵热水机组" display="http://szlonggan.com/productshow_12_29.html"/>
+    <hyperlink ref="A44" r:id="rId5" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_30.html"/>
+    <hyperlink ref="A43" r:id="rId6" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_31.html"/>
+    <hyperlink ref="A42" r:id="rId7" tooltip="SYRB-A系列热泵热水机组" display="http://szlonggan.com/productshow_12_32.html"/>
+    <hyperlink ref="A55" r:id="rId8" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
+    <hyperlink ref="A54" r:id="rId9" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
+    <hyperlink ref="A20" r:id="rId10" tooltip="商用型热泵" display="http://szlonggan.com/productshow_12_46.html"/>
+    <hyperlink ref="A58" r:id="rId11" tooltip="水箱" display="http://szlonggan.com/productshow_12_75.html"/>
+    <hyperlink ref="A57" r:id="rId12" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
+    <hyperlink ref="A56" r:id="rId13" tooltip="太阳能集中供热" display="http://szlonggan.com/productshow_12_77.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId14"/>
@@ -2832,14 +3174,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.75" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -2853,7 +3195,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2868,7 +3210,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ01.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -2883,7 +3225,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ02.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -2898,7 +3240,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ03.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -2913,7 +3255,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ04.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2928,7 +3270,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ05.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -2943,7 +3285,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ06.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -2958,7 +3300,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ07.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -2973,7 +3315,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ08.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2988,7 +3330,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ09.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3003,7 +3345,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ10.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -3018,7 +3360,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ11.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -3033,7 +3375,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ12.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -3048,7 +3390,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ13.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -3063,7 +3405,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ14.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -3078,7 +3420,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ15.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -3093,7 +3435,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ16.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -3108,7 +3450,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ17.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -3123,7 +3465,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ18.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -3138,7 +3480,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ19.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -3153,7 +3495,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'尚客优20吨热水','','AZ20.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -3168,7 +3510,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ21.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -3183,7 +3525,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ22.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -3198,7 +3540,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ23.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -3213,7 +3555,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ24.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -3228,7 +3570,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ25.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -3243,7 +3585,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ26.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -3258,7 +3600,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ27.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -3273,7 +3615,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'案例','','AZ28.jpg',GETDATE(),9000);</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -3288,7 +3630,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'南京四五四解放军医院','','AZ29.jpg',GETDATE(),9079);</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -3303,7 +3645,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'南京四五四解放军医院','','AZ30.jpg',GETDATE(),9080);</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -3318,7 +3660,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'南京四五四解放军医院','','AZ31.jpg',GETDATE(),9081);</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -3333,7 +3675,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'南京四五四解放军医院','','AZ32.jpg',GETDATE(),9082);</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -3348,7 +3690,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州农业大学热水工程','','AZ33.jpg',GETDATE(),9077);</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -3363,7 +3705,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州农业大学热水工程','','AZ34.jpg',GETDATE(),9078);</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -3378,7 +3720,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ35.jpg',GETDATE(),9075);</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -3393,7 +3735,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'五星级酒店吴江海悦维保','','AZ36.jpg',GETDATE(),9076);</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -3408,7 +3750,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ37.jpg',GETDATE(),9073);</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -3423,7 +3765,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州陆慕中心幼儿园热水工程','','AZ38.jpg',GETDATE(),9074);</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -3438,7 +3780,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'别墅地源热泵','','AZ39.jpg',GETDATE(),8027);</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -3453,7 +3795,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'别墅地源热泵','','AZ40.jpg',GETDATE(),8028);</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -3468,7 +3810,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'别墅地暖','','AZ41.jpg',GETDATE(),8029);</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -3483,7 +3825,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'别墅地源热泵','','AZ42.jpg',GETDATE(),8030);</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -3498,7 +3840,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ43.jpg',GETDATE(),9065);</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -3513,7 +3855,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ44.jpg',GETDATE(),9066);</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>189</v>
       </c>
@@ -3528,7 +3870,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ45.jpg',GETDATE(),9067);</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -3543,7 +3885,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ46.jpg',GETDATE(),9068);</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>189</v>
       </c>
@@ -3558,7 +3900,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ47.jpg',GETDATE(),9069);</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3573,7 +3915,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ48.jpg',GETDATE(),9070);</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>189</v>
       </c>
@@ -3588,7 +3930,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ49.jpg',GETDATE(),9071);</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>189</v>
       </c>
@@ -3603,7 +3945,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'中央水空调及空气源热泵热水维护保养','','AZ50.jpg',GETDATE(),9072);</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -3618,7 +3960,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ51.jpg',GETDATE(),9061);</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -3633,7 +3975,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ52.jpg',GETDATE(),9062);</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>194</v>
       </c>
@@ -3648,7 +3990,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ53.jpg',GETDATE(),9063);</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>194</v>
       </c>
@@ -3663,7 +4005,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'北桥北海宾馆、人才公寓热水售后维护','','AZ54.jpg',GETDATE(),9064);</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>199</v>
       </c>
@@ -3678,7 +4020,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ55.jpg',GETDATE(),9057);</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>199</v>
       </c>
@@ -3693,7 +4035,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ56.jpg',GETDATE(),9058);</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>199</v>
       </c>
@@ -3708,7 +4050,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ57.jpg',GETDATE(),9059);</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>199</v>
       </c>
@@ -3723,7 +4065,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'家用空气源热泵热水安装调试正常','','AZ58.jpg',GETDATE(),9060);</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>204</v>
       </c>
@@ -3738,7 +4080,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ59.jpg',GETDATE(),8023);</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -3753,7 +4095,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ60.jpg',GETDATE(),8024);</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -3768,7 +4110,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ61.jpg',GETDATE(),8025);</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>204</v>
       </c>
@@ -3783,7 +4125,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'常熟沙家浜别墅地源热泵保压中','','AZ62.jpg',GETDATE(),8026);</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -3798,7 +4140,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'浒关浴场','','AZ63.jpg',GETDATE(),9057);</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -3813,7 +4155,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'浒关浴场','','AZ64.jpg',GETDATE(),9058);</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>209</v>
       </c>
@@ -3828,7 +4170,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'浒关浴场','','AZ65.jpg',GETDATE(),9059);</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>209</v>
       </c>
@@ -3843,7 +4185,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'浒关浴场','','AZ66.jpg',GETDATE(),9060);</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>224</v>
       </c>
@@ -3858,7 +4200,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ67.jpg',GETDATE(),9043);</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>224</v>
       </c>
@@ -3873,7 +4215,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ68.jpg',GETDATE(),9044);</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>224</v>
       </c>
@@ -3888,7 +4230,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ69.jpg',GETDATE(),9045);</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>224</v>
       </c>
@@ -3903,7 +4245,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ70.jpg',GETDATE(),9046);</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>224</v>
       </c>
@@ -3918,7 +4260,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ71.jpg',GETDATE(),9047);</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>224</v>
       </c>
@@ -3933,7 +4275,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ72.jpg',GETDATE(),9048);</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>224</v>
       </c>
@@ -3948,7 +4290,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ73.jpg',GETDATE(),9049);</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>224</v>
       </c>
@@ -3963,7 +4305,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ74.jpg',GETDATE(),9050);</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -3978,7 +4320,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ75.jpg',GETDATE(),9051);</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>224</v>
       </c>
@@ -3993,7 +4335,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ76.jpg',GETDATE(),9052);</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>224</v>
       </c>
@@ -4008,7 +4350,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ77.jpg',GETDATE(),9053);</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>224</v>
       </c>
@@ -4023,7 +4365,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ78.jpg',GETDATE(),9054);</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -4038,7 +4380,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ79.jpg',GETDATE(),9055);</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>224</v>
       </c>
@@ -4053,7 +4395,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'湖桥乐活岛空气源热泵热水安装调试正常','','AZ80.jpg',GETDATE(),9056);</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>232</v>
       </c>
@@ -4068,7 +4410,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ81.jpg',GETDATE(),9036);</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>232</v>
       </c>
@@ -4083,7 +4425,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ82.jpg',GETDATE(),9037);</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -4098,7 +4440,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ83.jpg',GETDATE(),9038);</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -4113,7 +4455,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ84.jpg',GETDATE(),9039);</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>232</v>
       </c>
@@ -4128,7 +4470,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ85.jpg',GETDATE(),9040);</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>232</v>
       </c>
@@ -4143,7 +4485,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ86.jpg',GETDATE(),9041);</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>232</v>
       </c>
@@ -4158,7 +4500,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'甪直宾馆空气源热泵热水调试正常','','AZ87.jpg',GETDATE(),9042);</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>236</v>
       </c>
@@ -4173,7 +4515,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间','','AZ88.jpg',GETDATE(),9033);</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>236</v>
       </c>
@@ -4188,7 +4530,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间','','AZ89.jpg',GETDATE(),9034);</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>236</v>
       </c>
@@ -4203,7 +4545,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场客房泳池淋雨空气源热泵热水雨天施工，为客户争取时间','','AZ90.jpg',GETDATE(),9035);</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>242</v>
       </c>
@@ -4218,7 +4560,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ91.jpg',GETDATE(),9028);</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>242</v>
       </c>
@@ -4233,7 +4575,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ92.jpg',GETDATE(),9029);</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>242</v>
       </c>
@@ -4248,7 +4590,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ93.jpg',GETDATE(),9030);</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>242</v>
       </c>
@@ -4263,7 +4605,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ94.jpg',GETDATE(),9031);</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>242</v>
       </c>
@@ -4278,7 +4620,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'相城凯翔广场空气源热泵热水施工中','','AZ95.jpg',GETDATE(),9032);</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>246</v>
       </c>
@@ -4293,7 +4635,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路宾馆空气源热泵水箱吊装','','AZ96.jpg',GETDATE(),9025);</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>246</v>
       </c>
@@ -4308,7 +4650,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路宾馆空气源热泵水箱吊装','','AZ97.jpg',GETDATE(),9026);</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>246</v>
       </c>
@@ -4323,7 +4665,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路宾馆空气源热泵水箱吊装','','AZ98.jpg',GETDATE(),9027);</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>256</v>
       </c>
@@ -4338,7 +4680,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ99.jpg',GETDATE(),9015);</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>256</v>
       </c>
@@ -4353,7 +4695,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ100.jpg',GETDATE(),9016);</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>256</v>
       </c>
@@ -4368,7 +4710,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ101.jpg',GETDATE(),9017);</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>256</v>
       </c>
@@ -4383,7 +4725,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ102.jpg',GETDATE(),9018);</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>256</v>
       </c>
@@ -4398,7 +4740,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ103.jpg',GETDATE(),9019);</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>256</v>
       </c>
@@ -4413,7 +4755,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ104.jpg',GETDATE(),9020);</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>256</v>
       </c>
@@ -4428,7 +4770,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ105.jpg',GETDATE(),9021);</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>256</v>
       </c>
@@ -4443,7 +4785,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ106.jpg',GETDATE(),9022);</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>256</v>
       </c>
@@ -4458,7 +4800,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'石路热水','','AZ107.jpg',GETDATE(),9023);</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>261</v>
       </c>
@@ -4473,7 +4815,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ108.jpg',GETDATE(),9011);</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>261</v>
       </c>
@@ -4488,7 +4830,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ109.jpg',GETDATE(),9012);</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>261</v>
       </c>
@@ -4503,7 +4845,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ110.jpg',GETDATE(),9013);</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>261</v>
       </c>
@@ -4518,7 +4860,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'空气源热泵热水售后维护','','AZ111.jpg',GETDATE(),9014);</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>279</v>
       </c>
@@ -4533,7 +4875,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ112.jpg',GETDATE(),8005);</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -4548,7 +4890,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ113.jpg',GETDATE(),8006);</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>279</v>
       </c>
@@ -4563,7 +4905,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ114.jpg',GETDATE(),8007);</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>279</v>
       </c>
@@ -4578,7 +4920,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ115.jpg',GETDATE(),8008);</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>279</v>
       </c>
@@ -4593,7 +4935,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ116.jpg',GETDATE(),8009);</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>279</v>
       </c>
@@ -4608,7 +4950,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ117.jpg',GETDATE(),8010);</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>279</v>
       </c>
@@ -4623,7 +4965,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ118.jpg',GETDATE(),8011);</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>279</v>
       </c>
@@ -4638,7 +4980,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ119.jpg',GETDATE(),8012);</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>279</v>
       </c>
@@ -4653,7 +4995,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ120.jpg',GETDATE(),8013);</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>279</v>
       </c>
@@ -4668,7 +5010,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ121.jpg',GETDATE(),8014);</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>279</v>
       </c>
@@ -4683,7 +5025,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ122.jpg',GETDATE(),8015);</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>279</v>
       </c>
@@ -4698,7 +5040,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ123.jpg',GETDATE(),8016);</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>279</v>
       </c>
@@ -4713,7 +5055,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ124.jpg',GETDATE(),8017);</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>279</v>
       </c>
@@ -4728,7 +5070,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ125.jpg',GETDATE(),8018);</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>279</v>
       </c>
@@ -4743,7 +5085,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ126.jpg',GETDATE(),8019);</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>279</v>
       </c>
@@ -4758,7 +5100,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ127.jpg',GETDATE(),8020);</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>279</v>
       </c>
@@ -4773,7 +5115,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'胜浦凤凰城汉庭酒店空气源热泵热水正常使用','','AZ128.jpg',GETDATE(),8021);</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>282</v>
       </c>
@@ -4788,7 +5130,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州第三中学空气源热泵热水','','AZ129.jpg',GETDATE(),8005);</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>282</v>
       </c>
@@ -4803,7 +5145,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'苏州第三中学空气源热泵热水','','AZ130.jpg',GETDATE(),8006);</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>285</v>
       </c>
@@ -4818,7 +5160,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'西山缥缈峰空气源热泵热水','','AZ131.jpg',GETDATE(),9011);</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>285</v>
       </c>
@@ -4833,7 +5175,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'西山缥缈峰空气源热泵热水','','AZ132.jpg',GETDATE(),9010);</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>291</v>
       </c>
@@ -4848,7 +5190,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ133.jpg',GETDATE(),8000);</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>291</v>
       </c>
@@ -4863,7 +5205,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ134.jpg',GETDATE(),8001);</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>291</v>
       </c>
@@ -4878,7 +5220,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ135.jpg',GETDATE(),8002);</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>291</v>
       </c>
@@ -4893,7 +5235,7 @@
         <v>INSERT INTO [Longgan].[dbo].[SetCase] ([Id],[Title],[Content],[PicName],[Created],[PriorityNum])VALUES (NEWID(),'青剑湖工地工人洗澡空气源热泵热水','','AZ136.jpg',GETDATE(),8003);</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>291</v>
       </c>
@@ -4923,13 +5265,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -4940,7 +5282,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="409.5">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -4960,7 +5302,7 @@
     天气转暖，用电高峰，较之使用传统热水器耗费电量，空气能热水器的优势已然相当明显。在即将到来的高温潮中，又是新的销售高峰。',0,'2015-06-01');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="409.5">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4981,7 +5323,7 @@
     空气能热水器于2002年进入国内市场开始参与到热水器行业的市场竞争当中，经过十余年的发展，不管是产品质量的稳定性、产品性能的可靠性、技术的创新性，还是其市场认知度，空气能热水器都有了很大的提升。据相关部门统计，2013年，我国空气能热水器市场规模达到95亿元，同比2012年增长41.83%。其中工程机市场为50亿元，占53%，家用机市场为45亿元，占47%。',0,'2015-05-02');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="405" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="409.5">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -4999,7 +5341,7 @@
     媒体资深人士指出，热泵地暖采暖高效节能、绿色环保、舒适暖和，能普遍运用辽阔的北方，不仅让北方热泵经销商深受裨益，也是多方共赢的事。对于行业，可以借机壮大产业规模;对于热泵企业，可获得更多发展空间;对于消费者，则能独享节能、环保、舒适的热泵地暖采暖，而对于国家社会而言，则有利改善环境，推动节能环保事业发展，是利国利民的举措。',0,'2015-04-03');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="409.5">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -5018,7 +5360,7 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，同时，多种节能技术广泛深入的整合运用必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-03-04');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="409.5">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -5042,7 +5384,7 @@
     热泵专家指出，近年来，我国频发雾霾灾害，随着我国环境资源问题的日益严峻，推广空气能热水器也成当务之急。目前，国家政府有意向空气能产业的倾斜，表明我国在发展新能源产业上逐步向发达国家靠拢，与世界同步接轨，加上行业各项制度标准日益完善和热泵企业的共同努力，必将使我国空气能行业稳步走向繁荣，引领发展新风向。',0,'2015-02-05');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="409.5">
       <c r="A7" t="s">
         <v>137</v>
       </c>
